--- a/data/raw/election/voters-age-sex-education/2023/Mersin.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Mersin.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:52:46-43313754499" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="42">
   <si>
     <t>Mersin</t>
   </si>
@@ -140,6 +139,12 @@
   </si>
   <si>
     <t>Yenişehir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -687,16 +692,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,11 +1035,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:A344"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1040,52 +1052,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,14 +1151,14 @@
       <c r="F6" s="4">
         <v>8</v>
       </c>
-      <c r="G6" s="4">
-        <v>6.1050000000000004</v>
-      </c>
-      <c r="H6" s="4">
-        <v>7.6779999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.1830000000000001</v>
+      <c r="G6" s="5">
+        <v>6105</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7678</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1183</v>
       </c>
       <c r="J6" s="4">
         <v>6</v>
@@ -1157,8 +1169,8 @@
       <c r="L6" s="4">
         <v>179</v>
       </c>
-      <c r="M6" s="5">
-        <v>15.44</v>
+      <c r="M6" s="6">
+        <v>15440</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,14 +1190,14 @@
       <c r="F7" s="4">
         <v>8</v>
       </c>
-      <c r="G7" s="4">
-        <v>5.0389999999999997</v>
-      </c>
-      <c r="H7" s="4">
-        <v>7.6040000000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.732</v>
+      <c r="G7" s="5">
+        <v>5039</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7604</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1732</v>
       </c>
       <c r="J7" s="4">
         <v>7</v>
@@ -1196,8 +1208,8 @@
       <c r="L7" s="4">
         <v>76</v>
       </c>
-      <c r="M7" s="5">
-        <v>14.896000000000001</v>
+      <c r="M7" s="6">
+        <v>14896</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,14 +1231,14 @@
       <c r="F8" s="4">
         <v>293</v>
       </c>
-      <c r="G8" s="4">
-        <v>4.1189999999999998</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.0569999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.3180000000000001</v>
+      <c r="G8" s="5">
+        <v>4119</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3057</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2318</v>
       </c>
       <c r="J8" s="4">
         <v>98</v>
@@ -1237,8 +1249,8 @@
       <c r="L8" s="4">
         <v>84</v>
       </c>
-      <c r="M8" s="5">
-        <v>10.394</v>
+      <c r="M8" s="6">
+        <v>10394</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,14 +1270,14 @@
       <c r="F9" s="4">
         <v>295</v>
       </c>
-      <c r="G9" s="4">
-        <v>3.238</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.1429999999999998</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.577</v>
+      <c r="G9" s="5">
+        <v>3238</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2143</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2577</v>
       </c>
       <c r="J9" s="4">
         <v>83</v>
@@ -1276,8 +1288,8 @@
       <c r="L9" s="4">
         <v>105</v>
       </c>
-      <c r="M9" s="5">
-        <v>9.7260000000000009</v>
+      <c r="M9" s="6">
+        <v>9726</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,17 +1308,17 @@
       <c r="E10" s="4">
         <v>213</v>
       </c>
-      <c r="F10" s="4">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2.7789999999999999</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.8009999999999999</v>
+      <c r="F10" s="5">
+        <v>2267</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1760</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2779</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1801</v>
       </c>
       <c r="J10" s="4">
         <v>115</v>
@@ -1317,8 +1329,8 @@
       <c r="L10" s="4">
         <v>108</v>
       </c>
-      <c r="M10" s="5">
-        <v>9.4410000000000007</v>
+      <c r="M10" s="6">
+        <v>9441</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,23 +1341,23 @@
       <c r="C11" s="4">
         <v>323</v>
       </c>
-      <c r="D11" s="4">
-        <v>1.2230000000000001</v>
+      <c r="D11" s="5">
+        <v>1223</v>
       </c>
       <c r="E11" s="4">
         <v>613</v>
       </c>
-      <c r="F11" s="4">
-        <v>1.821</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.111</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.909</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1.548</v>
+      <c r="F11" s="5">
+        <v>1821</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1111</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1909</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1548</v>
       </c>
       <c r="J11" s="4">
         <v>99</v>
@@ -1356,8 +1368,8 @@
       <c r="L11" s="4">
         <v>118</v>
       </c>
-      <c r="M11" s="5">
-        <v>8.77</v>
+      <c r="M11" s="6">
+        <v>8770</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1373,20 +1385,20 @@
       <c r="D12" s="4">
         <v>311</v>
       </c>
-      <c r="E12" s="4">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2.9079999999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.1930000000000001</v>
+      <c r="E12" s="5">
+        <v>1003</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1067</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2908</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1193</v>
       </c>
       <c r="J12" s="4">
         <v>94</v>
@@ -1397,8 +1409,8 @@
       <c r="L12" s="4">
         <v>130</v>
       </c>
-      <c r="M12" s="5">
-        <v>8.7789999999999999</v>
+      <c r="M12" s="6">
+        <v>8779</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1412,17 +1424,17 @@
       <c r="D13" s="4">
         <v>890</v>
       </c>
-      <c r="E13" s="4">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.2010000000000001</v>
+      <c r="E13" s="5">
+        <v>2087</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1201</v>
       </c>
       <c r="G13" s="4">
         <v>837</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.804</v>
+      <c r="H13" s="5">
+        <v>1804</v>
       </c>
       <c r="I13" s="4">
         <v>844</v>
@@ -1436,8 +1448,8 @@
       <c r="L13" s="4">
         <v>99</v>
       </c>
-      <c r="M13" s="5">
-        <v>8.1310000000000002</v>
+      <c r="M13" s="6">
+        <v>8131</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,17 +1465,17 @@
       <c r="D14" s="4">
         <v>232</v>
       </c>
-      <c r="E14" s="4">
-        <v>1.734</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.595</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2.419</v>
+      <c r="E14" s="5">
+        <v>1734</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1562</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1595</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2419</v>
       </c>
       <c r="I14" s="4">
         <v>763</v>
@@ -1477,8 +1489,8 @@
       <c r="L14" s="4">
         <v>139</v>
       </c>
-      <c r="M14" s="5">
-        <v>8.5920000000000005</v>
+      <c r="M14" s="6">
+        <v>8592</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1492,17 +1504,17 @@
       <c r="D15" s="4">
         <v>947</v>
       </c>
-      <c r="E15" s="4">
-        <v>2.8849999999999998</v>
+      <c r="E15" s="5">
+        <v>2885</v>
       </c>
       <c r="F15" s="4">
         <v>866</v>
       </c>
-      <c r="G15" s="4">
-        <v>1.17</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1.5509999999999999</v>
+      <c r="G15" s="5">
+        <v>1170</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1551</v>
       </c>
       <c r="I15" s="4">
         <v>558</v>
@@ -1516,8 +1528,8 @@
       <c r="L15" s="4">
         <v>120</v>
       </c>
-      <c r="M15" s="5">
-        <v>8.484</v>
+      <c r="M15" s="6">
+        <v>8484</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1533,17 +1545,17 @@
       <c r="D16" s="4">
         <v>183</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.496</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.407</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1.865</v>
+      <c r="E16" s="5">
+        <v>1844</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1496</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1407</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1865</v>
       </c>
       <c r="I16" s="4">
         <v>529</v>
@@ -1557,8 +1569,8 @@
       <c r="L16" s="4">
         <v>103</v>
       </c>
-      <c r="M16" s="5">
-        <v>7.5250000000000004</v>
+      <c r="M16" s="6">
+        <v>7525</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1572,17 +1584,17 @@
       <c r="D17" s="4">
         <v>772</v>
       </c>
-      <c r="E17" s="4">
-        <v>2.84</v>
+      <c r="E17" s="5">
+        <v>2840</v>
       </c>
       <c r="F17" s="4">
         <v>885</v>
       </c>
-      <c r="G17" s="4">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.2430000000000001</v>
+      <c r="G17" s="5">
+        <v>1023</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1243</v>
       </c>
       <c r="I17" s="4">
         <v>366</v>
@@ -1596,8 +1608,8 @@
       <c r="L17" s="4">
         <v>107</v>
       </c>
-      <c r="M17" s="5">
-        <v>7.5670000000000002</v>
+      <c r="M17" s="6">
+        <v>7567</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1613,17 +1625,17 @@
       <c r="D18" s="4">
         <v>192</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.514</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.367</v>
+      <c r="E18" s="5">
+        <v>1848</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1514</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1404</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1367</v>
       </c>
       <c r="I18" s="4">
         <v>426</v>
@@ -1637,8 +1649,8 @@
       <c r="L18" s="4">
         <v>115</v>
       </c>
-      <c r="M18" s="5">
-        <v>6.9580000000000002</v>
+      <c r="M18" s="6">
+        <v>6958</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1652,8 +1664,8 @@
       <c r="D19" s="4">
         <v>918</v>
       </c>
-      <c r="E19" s="4">
-        <v>2.7389999999999999</v>
+      <c r="E19" s="5">
+        <v>2739</v>
       </c>
       <c r="F19" s="4">
         <v>708</v>
@@ -1676,8 +1688,8 @@
       <c r="L19" s="4">
         <v>107</v>
       </c>
-      <c r="M19" s="5">
-        <v>6.9649999999999999</v>
+      <c r="M19" s="6">
+        <v>6965</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1693,17 +1705,17 @@
       <c r="D20" s="4">
         <v>241</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.238</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.234</v>
+      <c r="E20" s="5">
+        <v>1979</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1247</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1238</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1234</v>
       </c>
       <c r="I20" s="4">
         <v>312</v>
@@ -1717,8 +1729,8 @@
       <c r="L20" s="4">
         <v>90</v>
       </c>
-      <c r="M20" s="5">
-        <v>6.4589999999999996</v>
+      <c r="M20" s="6">
+        <v>6459</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1732,8 +1744,8 @@
       <c r="D21" s="4">
         <v>967</v>
       </c>
-      <c r="E21" s="4">
-        <v>2.59</v>
+      <c r="E21" s="5">
+        <v>2590</v>
       </c>
       <c r="F21" s="4">
         <v>466</v>
@@ -1756,8 +1768,8 @@
       <c r="L21" s="4">
         <v>122</v>
       </c>
-      <c r="M21" s="5">
-        <v>6.2039999999999997</v>
+      <c r="M21" s="6">
+        <v>6204</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1773,8 +1785,8 @@
       <c r="D22" s="4">
         <v>242</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.944</v>
+      <c r="E22" s="5">
+        <v>1944</v>
       </c>
       <c r="F22" s="4">
         <v>716</v>
@@ -1782,8 +1794,8 @@
       <c r="G22" s="4">
         <v>778</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.0369999999999999</v>
+      <c r="H22" s="5">
+        <v>1037</v>
       </c>
       <c r="I22" s="4">
         <v>268</v>
@@ -1797,8 +1809,8 @@
       <c r="L22" s="4">
         <v>96</v>
       </c>
-      <c r="M22" s="5">
-        <v>5.1909999999999998</v>
+      <c r="M22" s="6">
+        <v>5191</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1812,8 +1824,8 @@
       <c r="D23" s="4">
         <v>957</v>
       </c>
-      <c r="E23" s="4">
-        <v>2.3460000000000001</v>
+      <c r="E23" s="5">
+        <v>2346</v>
       </c>
       <c r="F23" s="4">
         <v>268</v>
@@ -1836,8 +1848,8 @@
       <c r="L23" s="4">
         <v>66</v>
       </c>
-      <c r="M23" s="5">
-        <v>5.3659999999999997</v>
+      <c r="M23" s="6">
+        <v>5366</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1853,8 +1865,8 @@
       <c r="D24" s="4">
         <v>305</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.871</v>
+      <c r="E24" s="5">
+        <v>1871</v>
       </c>
       <c r="F24" s="4">
         <v>321</v>
@@ -1877,8 +1889,8 @@
       <c r="L24" s="4">
         <v>74</v>
       </c>
-      <c r="M24" s="5">
-        <v>3.9830000000000001</v>
+      <c r="M24" s="6">
+        <v>3983</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1892,8 +1904,8 @@
       <c r="D25" s="4">
         <v>917</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.85</v>
+      <c r="E25" s="5">
+        <v>1850</v>
       </c>
       <c r="F25" s="4">
         <v>83</v>
@@ -1916,8 +1928,8 @@
       <c r="L25" s="4">
         <v>79</v>
       </c>
-      <c r="M25" s="5">
-        <v>4.26</v>
+      <c r="M25" s="6">
+        <v>4260</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1933,8 +1945,8 @@
       <c r="D26" s="4">
         <v>294</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.3089999999999999</v>
+      <c r="E26" s="5">
+        <v>1309</v>
       </c>
       <c r="F26" s="4">
         <v>95</v>
@@ -1957,8 +1969,8 @@
       <c r="L26" s="4">
         <v>37</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.5070000000000001</v>
+      <c r="M26" s="6">
+        <v>2507</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1972,8 +1984,8 @@
       <c r="D27" s="4">
         <v>839</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.226</v>
+      <c r="E27" s="5">
+        <v>1226</v>
       </c>
       <c r="F27" s="4">
         <v>44</v>
@@ -1996,8 +2008,8 @@
       <c r="L27" s="4">
         <v>45</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.258</v>
+      <c r="M27" s="6">
+        <v>3258</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2013,8 +2025,8 @@
       <c r="D28" s="4">
         <v>484</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.361</v>
+      <c r="E28" s="5">
+        <v>1361</v>
       </c>
       <c r="F28" s="4">
         <v>35</v>
@@ -2037,8 +2049,8 @@
       <c r="L28" s="4">
         <v>38</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.7240000000000002</v>
+      <c r="M28" s="6">
+        <v>2724</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2046,14 +2058,14 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1.331</v>
+      <c r="C29" s="5">
+        <v>1411</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1305</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1331</v>
       </c>
       <c r="F29" s="4">
         <v>17</v>
@@ -2076,54 +2088,54 @@
       <c r="L29" s="4">
         <v>72</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.5330000000000004</v>
+      <c r="M29" s="6">
+        <v>4533</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>6.5720000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <v>13.554</v>
-      </c>
-      <c r="E30" s="5">
-        <v>36.947000000000003</v>
-      </c>
-      <c r="F30" s="5">
-        <v>18.231000000000002</v>
-      </c>
-      <c r="G30" s="5">
-        <v>35.447000000000003</v>
-      </c>
-      <c r="H30" s="5">
-        <v>44.469000000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <v>17.591000000000001</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>6572</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13554</v>
+      </c>
+      <c r="E30" s="6">
+        <v>36947</v>
+      </c>
+      <c r="F30" s="6">
+        <v>18231</v>
+      </c>
+      <c r="G30" s="6">
+        <v>35447</v>
+      </c>
+      <c r="H30" s="6">
+        <v>44469</v>
+      </c>
+      <c r="I30" s="6">
+        <v>17591</v>
+      </c>
+      <c r="J30" s="8">
         <v>919</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="8">
         <v>114</v>
       </c>
-      <c r="L30" s="5">
-        <v>2.3090000000000002</v>
-      </c>
-      <c r="M30" s="5">
-        <v>176.15299999999999</v>
+      <c r="L30" s="6">
+        <v>2309</v>
+      </c>
+      <c r="M30" s="6">
+        <v>176153</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2180,8 +2192,8 @@
       <c r="G32" s="4">
         <v>788</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.9690000000000001</v>
+      <c r="H32" s="5">
+        <v>1969</v>
       </c>
       <c r="I32" s="4">
         <v>450</v>
@@ -2195,8 +2207,8 @@
       <c r="L32" s="4">
         <v>33</v>
       </c>
-      <c r="M32" s="5">
-        <v>3.2559999999999998</v>
+      <c r="M32" s="6">
+        <v>3256</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2219,8 +2231,8 @@
       <c r="G33" s="4">
         <v>428</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.8580000000000001</v>
+      <c r="H33" s="5">
+        <v>1858</v>
       </c>
       <c r="I33" s="4">
         <v>704</v>
@@ -2234,8 +2246,8 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.0129999999999999</v>
+      <c r="M33" s="6">
+        <v>3013</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,8 +2287,8 @@
       <c r="L34" s="4">
         <v>6</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.1219999999999999</v>
+      <c r="M34" s="6">
+        <v>2122</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2314,8 +2326,8 @@
       <c r="L35" s="4">
         <v>9</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M35" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2355,8 +2367,8 @@
       <c r="L36" s="4">
         <v>7</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.9179999999999999</v>
+      <c r="M36" s="6">
+        <v>1918</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2394,8 +2406,8 @@
       <c r="L37" s="4">
         <v>2</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.909</v>
+      <c r="M37" s="6">
+        <v>1909</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2435,8 +2447,8 @@
       <c r="L38" s="4">
         <v>12</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.1240000000000001</v>
+      <c r="M38" s="6">
+        <v>2124</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2474,8 +2486,8 @@
       <c r="L39" s="4">
         <v>7</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.1280000000000001</v>
+      <c r="M39" s="6">
+        <v>2128</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,8 +2527,8 @@
       <c r="L40" s="4">
         <v>9</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.4020000000000001</v>
+      <c r="M40" s="6">
+        <v>2402</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2554,8 +2566,8 @@
       <c r="L41" s="4">
         <v>5</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.492</v>
+      <c r="M41" s="6">
+        <v>2492</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,8 +2607,8 @@
       <c r="L42" s="4">
         <v>12</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.46</v>
+      <c r="M42" s="6">
+        <v>2460</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,8 +2646,8 @@
       <c r="L43" s="4">
         <v>13</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.6629999999999998</v>
+      <c r="M43" s="6">
+        <v>2663</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,8 +2687,8 @@
       <c r="L44" s="4">
         <v>7</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.5939999999999999</v>
+      <c r="M44" s="6">
+        <v>2594</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2690,8 +2702,8 @@
       <c r="D45" s="4">
         <v>38</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.107</v>
+      <c r="E45" s="5">
+        <v>1107</v>
       </c>
       <c r="F45" s="4">
         <v>256</v>
@@ -2714,8 +2726,8 @@
       <c r="L45" s="4">
         <v>16</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.6219999999999999</v>
+      <c r="M45" s="6">
+        <v>2622</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,8 +2767,8 @@
       <c r="L46" s="4">
         <v>12</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.4889999999999999</v>
+      <c r="M46" s="6">
+        <v>2489</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2770,8 +2782,8 @@
       <c r="D47" s="4">
         <v>48</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.256</v>
+      <c r="E47" s="5">
+        <v>1256</v>
       </c>
       <c r="F47" s="4">
         <v>173</v>
@@ -2794,8 +2806,8 @@
       <c r="L47" s="4">
         <v>12</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.5369999999999999</v>
+      <c r="M47" s="6">
+        <v>2537</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2835,8 +2847,8 @@
       <c r="L48" s="4">
         <v>18</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.0880000000000001</v>
+      <c r="M48" s="6">
+        <v>2088</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2850,8 +2862,8 @@
       <c r="D49" s="4">
         <v>153</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.103</v>
+      <c r="E49" s="5">
+        <v>1103</v>
       </c>
       <c r="F49" s="4">
         <v>84</v>
@@ -2874,8 +2886,8 @@
       <c r="L49" s="4">
         <v>13</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.1259999999999999</v>
+      <c r="M49" s="6">
+        <v>2126</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,8 +2927,8 @@
       <c r="L50" s="4">
         <v>17</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.66</v>
+      <c r="M50" s="6">
+        <v>1660</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,8 +2966,8 @@
       <c r="L51" s="4">
         <v>11</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.643</v>
+      <c r="M51" s="6">
+        <v>1643</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2995,8 +3007,8 @@
       <c r="L52" s="4">
         <v>5</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.1639999999999999</v>
+      <c r="M52" s="6">
+        <v>1164</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3034,8 +3046,8 @@
       <c r="L53" s="4">
         <v>10</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.3129999999999999</v>
+      <c r="M53" s="6">
+        <v>1313</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3075,8 +3087,8 @@
       <c r="L54" s="4">
         <v>10</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.8660000000000001</v>
+      <c r="M54" s="6">
+        <v>1866</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3087,8 +3099,8 @@
       <c r="C55" s="4">
         <v>162</v>
       </c>
-      <c r="D55" s="4">
-        <v>1.194</v>
+      <c r="D55" s="5">
+        <v>1194</v>
       </c>
       <c r="E55" s="4">
         <v>765</v>
@@ -3114,54 +3126,54 @@
       <c r="L55" s="4">
         <v>7</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.3039999999999998</v>
+      <c r="M55" s="6">
+        <v>2304</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>405</v>
       </c>
-      <c r="D56" s="5">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>13.52</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.742</v>
-      </c>
-      <c r="G56" s="5">
-        <v>6.4880000000000004</v>
-      </c>
-      <c r="H56" s="5">
-        <v>13.942</v>
-      </c>
-      <c r="I56" s="5">
-        <v>10.677</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="D56" s="6">
+        <v>2785</v>
+      </c>
+      <c r="E56" s="6">
+        <v>13520</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3742</v>
+      </c>
+      <c r="G56" s="6">
+        <v>6488</v>
+      </c>
+      <c r="H56" s="6">
+        <v>13942</v>
+      </c>
+      <c r="I56" s="6">
+        <v>10677</v>
+      </c>
+      <c r="J56" s="8">
         <v>940</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>76</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>255</v>
       </c>
-      <c r="M56" s="5">
-        <v>52.83</v>
+      <c r="M56" s="6">
+        <v>52830</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3233,7 +3245,7 @@
       <c r="L58" s="4">
         <v>2</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>584</v>
       </c>
     </row>
@@ -3272,7 +3284,7 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="8">
         <v>550</v>
       </c>
     </row>
@@ -3313,7 +3325,7 @@
       <c r="L60" s="4">
         <v>1</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>379</v>
       </c>
     </row>
@@ -3352,7 +3364,7 @@
       <c r="L61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>341</v>
       </c>
     </row>
@@ -3393,7 +3405,7 @@
       <c r="L62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>328</v>
       </c>
     </row>
@@ -3432,7 +3444,7 @@
       <c r="L63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>294</v>
       </c>
     </row>
@@ -3473,7 +3485,7 @@
       <c r="L64" s="4">
         <v>5</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>367</v>
       </c>
     </row>
@@ -3512,7 +3524,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>326</v>
       </c>
     </row>
@@ -3553,7 +3565,7 @@
       <c r="L66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>453</v>
       </c>
     </row>
@@ -3592,7 +3604,7 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>411</v>
       </c>
     </row>
@@ -3633,7 +3645,7 @@
       <c r="L68" s="4">
         <v>1</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>452</v>
       </c>
     </row>
@@ -3672,7 +3684,7 @@
       <c r="L69" s="4">
         <v>1</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>477</v>
       </c>
     </row>
@@ -3713,7 +3725,7 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>408</v>
       </c>
     </row>
@@ -3752,7 +3764,7 @@
       <c r="L71" s="4">
         <v>2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>426</v>
       </c>
     </row>
@@ -3793,7 +3805,7 @@
       <c r="L72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>442</v>
       </c>
     </row>
@@ -3832,7 +3844,7 @@
       <c r="L73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>387</v>
       </c>
     </row>
@@ -3873,7 +3885,7 @@
       <c r="L74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>319</v>
       </c>
     </row>
@@ -3912,7 +3924,7 @@
       <c r="L75" s="4">
         <v>1</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>308</v>
       </c>
     </row>
@@ -3953,7 +3965,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>247</v>
       </c>
     </row>
@@ -3992,7 +4004,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>289</v>
       </c>
     </row>
@@ -4033,7 +4045,7 @@
       <c r="L78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>190</v>
       </c>
     </row>
@@ -4072,7 +4084,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>227</v>
       </c>
     </row>
@@ -4113,7 +4125,7 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>302</v>
       </c>
     </row>
@@ -4152,7 +4164,7 @@
       <c r="L81" s="4">
         <v>1</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>396</v>
       </c>
     </row>
@@ -4160,46 +4172,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>96</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <v>516</v>
       </c>
-      <c r="E82" s="5">
-        <v>2.1930000000000001</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>2193</v>
+      </c>
+      <c r="F82" s="8">
         <v>803</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.44</v>
-      </c>
-      <c r="H82" s="5">
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.37</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="G82" s="6">
+        <v>1440</v>
+      </c>
+      <c r="H82" s="6">
+        <v>2326</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1370</v>
+      </c>
+      <c r="J82" s="8">
         <v>114</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>12</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>33</v>
       </c>
-      <c r="M82" s="5">
-        <v>8.9030000000000005</v>
+      <c r="M82" s="6">
+        <v>8903</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4271,8 +4283,8 @@
       <c r="L84" s="4">
         <v>10</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.353</v>
+      <c r="M84" s="6">
+        <v>1353</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4310,8 +4322,8 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.353</v>
+      <c r="M85" s="6">
+        <v>1353</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4351,7 +4363,7 @@
       <c r="L86" s="4">
         <v>3</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>771</v>
       </c>
     </row>
@@ -4390,7 +4402,7 @@
       <c r="L87" s="4">
         <v>2</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>659</v>
       </c>
     </row>
@@ -4431,7 +4443,7 @@
       <c r="L88" s="4">
         <v>2</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>649</v>
       </c>
     </row>
@@ -4470,7 +4482,7 @@
       <c r="L89" s="4">
         <v>2</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>694</v>
       </c>
     </row>
@@ -4511,7 +4523,7 @@
       <c r="L90" s="4">
         <v>3</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>874</v>
       </c>
     </row>
@@ -4550,7 +4562,7 @@
       <c r="L91" s="4">
         <v>1</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>859</v>
       </c>
     </row>
@@ -4591,8 +4603,8 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M92" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4630,8 +4642,8 @@
       <c r="L93" s="4">
         <v>3</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.0669999999999999</v>
+      <c r="M93" s="6">
+        <v>1067</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,8 +4683,8 @@
       <c r="L94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.107</v>
+      <c r="M94" s="6">
+        <v>1107</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4710,8 +4722,8 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.131</v>
+      <c r="M95" s="6">
+        <v>1131</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,8 +4763,8 @@
       <c r="L96" s="4">
         <v>2</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.089</v>
+      <c r="M96" s="6">
+        <v>1089</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4790,8 +4802,8 @@
       <c r="L97" s="4">
         <v>5</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M97" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,7 +4843,7 @@
       <c r="L98" s="4">
         <v>3</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>957</v>
       </c>
     </row>
@@ -4870,7 +4882,7 @@
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>968</v>
       </c>
     </row>
@@ -4911,7 +4923,7 @@
       <c r="L100" s="4">
         <v>4</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>755</v>
       </c>
     </row>
@@ -4950,7 +4962,7 @@
       <c r="L101" s="4">
         <v>4</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>812</v>
       </c>
     </row>
@@ -4991,7 +5003,7 @@
       <c r="L102" s="4">
         <v>7</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>613</v>
       </c>
     </row>
@@ -5030,7 +5042,7 @@
       <c r="L103" s="4">
         <v>3</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>686</v>
       </c>
     </row>
@@ -5071,7 +5083,7 @@
       <c r="L104" s="4">
         <v>1</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>466</v>
       </c>
     </row>
@@ -5110,7 +5122,7 @@
       <c r="L105" s="4">
         <v>5</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>508</v>
       </c>
     </row>
@@ -5151,7 +5163,7 @@
       <c r="L106" s="4">
         <v>5</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>668</v>
       </c>
     </row>
@@ -5190,7 +5202,7 @@
       <c r="L107" s="4">
         <v>5</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>829</v>
       </c>
     </row>
@@ -5198,46 +5210,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>145</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.3180000000000001</v>
-      </c>
-      <c r="E108" s="5">
-        <v>6.6619999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.4359999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>2.4220000000000002</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5.3289999999999997</v>
-      </c>
-      <c r="I108" s="5">
-        <v>3.3069999999999999</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="D108" s="6">
+        <v>1318</v>
+      </c>
+      <c r="E108" s="6">
+        <v>6662</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1436</v>
+      </c>
+      <c r="G108" s="6">
+        <v>2422</v>
+      </c>
+      <c r="H108" s="6">
+        <v>5329</v>
+      </c>
+      <c r="I108" s="6">
+        <v>3307</v>
+      </c>
+      <c r="J108" s="8">
         <v>248</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="8">
         <v>9</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>73</v>
       </c>
-      <c r="M108" s="5">
-        <v>20.949000000000002</v>
+      <c r="M108" s="6">
+        <v>20949</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5309,7 +5321,7 @@
       <c r="L110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>339</v>
       </c>
     </row>
@@ -5348,7 +5360,7 @@
       <c r="L111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>314</v>
       </c>
     </row>
@@ -5389,7 +5401,7 @@
       <c r="L112" s="4">
         <v>2</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>229</v>
       </c>
     </row>
@@ -5428,7 +5440,7 @@
       <c r="L113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>186</v>
       </c>
     </row>
@@ -5469,7 +5481,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>208</v>
       </c>
     </row>
@@ -5508,7 +5520,7 @@
       <c r="L115" s="4">
         <v>2</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>174</v>
       </c>
     </row>
@@ -5549,7 +5561,7 @@
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>203</v>
       </c>
     </row>
@@ -5588,7 +5600,7 @@
       <c r="L117" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>139</v>
       </c>
     </row>
@@ -5629,7 +5641,7 @@
       <c r="L118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>268</v>
       </c>
     </row>
@@ -5668,7 +5680,7 @@
       <c r="L119" s="4">
         <v>1</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>198</v>
       </c>
     </row>
@@ -5709,7 +5721,7 @@
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>273</v>
       </c>
     </row>
@@ -5748,7 +5760,7 @@
       <c r="L121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>215</v>
       </c>
     </row>
@@ -5789,7 +5801,7 @@
       <c r="L122" s="4">
         <v>3</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>325</v>
       </c>
     </row>
@@ -5828,7 +5840,7 @@
       <c r="L123" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>330</v>
       </c>
     </row>
@@ -5869,7 +5881,7 @@
       <c r="L124" s="4">
         <v>1</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>400</v>
       </c>
     </row>
@@ -5908,7 +5920,7 @@
       <c r="L125" s="4">
         <v>1</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>405</v>
       </c>
     </row>
@@ -5949,7 +5961,7 @@
       <c r="L126" s="4">
         <v>3</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>394</v>
       </c>
     </row>
@@ -5988,7 +6000,7 @@
       <c r="L127" s="4">
         <v>2</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>392</v>
       </c>
     </row>
@@ -6029,7 +6041,7 @@
       <c r="L128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>363</v>
       </c>
     </row>
@@ -6068,7 +6080,7 @@
       <c r="L129" s="4">
         <v>1</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>351</v>
       </c>
     </row>
@@ -6109,7 +6121,7 @@
       <c r="L130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>303</v>
       </c>
     </row>
@@ -6148,7 +6160,7 @@
       <c r="L131" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>262</v>
       </c>
     </row>
@@ -6189,7 +6201,7 @@
       <c r="L132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>389</v>
       </c>
     </row>
@@ -6228,7 +6240,7 @@
       <c r="L133" s="4">
         <v>2</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>435</v>
       </c>
     </row>
@@ -6236,46 +6248,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>198</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>432</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.6739999999999999</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>2674</v>
+      </c>
+      <c r="F134" s="8">
         <v>721</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="8">
         <v>838</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="H134" s="6">
+        <v>1398</v>
+      </c>
+      <c r="I134" s="8">
         <v>758</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="8">
         <v>48</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>8</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>20</v>
       </c>
-      <c r="M134" s="5">
-        <v>7.0949999999999998</v>
+      <c r="M134" s="6">
+        <v>7095</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6329,11 +6341,11 @@
       <c r="F136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.956</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.7759999999999998</v>
+      <c r="G136" s="5">
+        <v>1956</v>
+      </c>
+      <c r="H136" s="5">
+        <v>4776</v>
       </c>
       <c r="I136" s="4">
         <v>925</v>
@@ -6347,8 +6359,8 @@
       <c r="L136" s="4">
         <v>51</v>
       </c>
-      <c r="M136" s="5">
-        <v>7.7510000000000003</v>
+      <c r="M136" s="6">
+        <v>7751</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6368,14 +6380,14 @@
       <c r="F137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.391</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.423</v>
+      <c r="G137" s="5">
+        <v>1391</v>
+      </c>
+      <c r="H137" s="5">
+        <v>4876</v>
+      </c>
+      <c r="I137" s="5">
+        <v>1423</v>
       </c>
       <c r="J137" s="4">
         <v>9</v>
@@ -6386,8 +6398,8 @@
       <c r="L137" s="4">
         <v>28</v>
       </c>
-      <c r="M137" s="5">
-        <v>7.7789999999999999</v>
+      <c r="M137" s="6">
+        <v>7779</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,14 +6421,14 @@
       <c r="F138" s="4">
         <v>24</v>
       </c>
-      <c r="G138" s="4">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="H138" s="4">
-        <v>1.524</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.821</v>
+      <c r="G138" s="5">
+        <v>1203</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1524</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1821</v>
       </c>
       <c r="J138" s="4">
         <v>106</v>
@@ -6427,8 +6439,8 @@
       <c r="L138" s="4">
         <v>32</v>
       </c>
-      <c r="M138" s="5">
-        <v>4.7510000000000003</v>
+      <c r="M138" s="6">
+        <v>4751</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6448,14 +6460,14 @@
       <c r="F139" s="4">
         <v>38</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="I139" s="4">
-        <v>2.2949999999999999</v>
+      <c r="G139" s="5">
+        <v>1021</v>
+      </c>
+      <c r="H139" s="5">
+        <v>1183</v>
+      </c>
+      <c r="I139" s="5">
+        <v>2295</v>
       </c>
       <c r="J139" s="4">
         <v>136</v>
@@ -6466,8 +6478,8 @@
       <c r="L139" s="4">
         <v>31</v>
       </c>
-      <c r="M139" s="5">
-        <v>4.82</v>
+      <c r="M139" s="6">
+        <v>4820</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6492,11 +6504,11 @@
       <c r="G140" s="4">
         <v>602</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.4179999999999999</v>
+      <c r="H140" s="5">
+        <v>1521</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1418</v>
       </c>
       <c r="J140" s="4">
         <v>142</v>
@@ -6507,8 +6519,8 @@
       <c r="L140" s="4">
         <v>34</v>
       </c>
-      <c r="M140" s="5">
-        <v>4.3490000000000002</v>
+      <c r="M140" s="6">
+        <v>4349</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6531,11 +6543,11 @@
       <c r="G141" s="4">
         <v>567</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I141" s="4">
-        <v>1.6519999999999999</v>
+      <c r="H141" s="5">
+        <v>1197</v>
+      </c>
+      <c r="I141" s="5">
+        <v>1652</v>
       </c>
       <c r="J141" s="4">
         <v>164</v>
@@ -6546,8 +6558,8 @@
       <c r="L141" s="4">
         <v>41</v>
       </c>
-      <c r="M141" s="5">
-        <v>4.5640000000000001</v>
+      <c r="M141" s="6">
+        <v>4564</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,11 +6584,11 @@
       <c r="G142" s="4">
         <v>549</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1.2769999999999999</v>
+      <c r="H142" s="5">
+        <v>1743</v>
+      </c>
+      <c r="I142" s="5">
+        <v>1277</v>
       </c>
       <c r="J142" s="4">
         <v>176</v>
@@ -6587,8 +6599,8 @@
       <c r="L142" s="4">
         <v>36</v>
       </c>
-      <c r="M142" s="5">
-        <v>4.8630000000000004</v>
+      <c r="M142" s="6">
+        <v>4863</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6611,11 +6623,11 @@
       <c r="G143" s="4">
         <v>612</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="I143" s="4">
-        <v>1.248</v>
+      <c r="H143" s="5">
+        <v>1382</v>
+      </c>
+      <c r="I143" s="5">
+        <v>1248</v>
       </c>
       <c r="J143" s="4">
         <v>128</v>
@@ -6626,8 +6638,8 @@
       <c r="L143" s="4">
         <v>32</v>
       </c>
-      <c r="M143" s="5">
-        <v>4.92</v>
+      <c r="M143" s="6">
+        <v>4920</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,11 +6664,11 @@
       <c r="G144" s="4">
         <v>868</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.9970000000000001</v>
-      </c>
-      <c r="I144" s="4">
-        <v>1.0760000000000001</v>
+      <c r="H144" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I144" s="5">
+        <v>1076</v>
       </c>
       <c r="J144" s="4">
         <v>169</v>
@@ -6667,8 +6679,8 @@
       <c r="L144" s="4">
         <v>38</v>
       </c>
-      <c r="M144" s="5">
-        <v>5.5049999999999999</v>
+      <c r="M144" s="6">
+        <v>5505</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6682,8 +6694,8 @@
       <c r="D145" s="4">
         <v>53</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.4570000000000001</v>
+      <c r="E145" s="5">
+        <v>1457</v>
       </c>
       <c r="F145" s="4">
         <v>466</v>
@@ -6691,11 +6703,11 @@
       <c r="G145" s="4">
         <v>915</v>
       </c>
-      <c r="H145" s="4">
-        <v>1.605</v>
-      </c>
-      <c r="I145" s="4">
-        <v>1.0449999999999999</v>
+      <c r="H145" s="5">
+        <v>1605</v>
+      </c>
+      <c r="I145" s="5">
+        <v>1045</v>
       </c>
       <c r="J145" s="4">
         <v>105</v>
@@ -6706,8 +6718,8 @@
       <c r="L145" s="4">
         <v>30</v>
       </c>
-      <c r="M145" s="5">
-        <v>5.6970000000000001</v>
+      <c r="M145" s="6">
+        <v>5697</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6723,8 +6735,8 @@
       <c r="D146" s="4">
         <v>16</v>
       </c>
-      <c r="E146" s="4">
-        <v>1.113</v>
+      <c r="E146" s="5">
+        <v>1113</v>
       </c>
       <c r="F146" s="4">
         <v>693</v>
@@ -6732,8 +6744,8 @@
       <c r="G146" s="4">
         <v>890</v>
       </c>
-      <c r="H146" s="4">
-        <v>1.679</v>
+      <c r="H146" s="5">
+        <v>1679</v>
       </c>
       <c r="I146" s="4">
         <v>929</v>
@@ -6747,8 +6759,8 @@
       <c r="L146" s="4">
         <v>35</v>
       </c>
-      <c r="M146" s="5">
-        <v>5.5170000000000003</v>
+      <c r="M146" s="6">
+        <v>5517</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6762,8 +6774,8 @@
       <c r="D147" s="4">
         <v>55</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.758</v>
+      <c r="E147" s="5">
+        <v>1758</v>
       </c>
       <c r="F147" s="4">
         <v>603</v>
@@ -6771,8 +6783,8 @@
       <c r="G147" s="4">
         <v>948</v>
       </c>
-      <c r="H147" s="4">
-        <v>1.3220000000000001</v>
+      <c r="H147" s="5">
+        <v>1322</v>
       </c>
       <c r="I147" s="4">
         <v>727</v>
@@ -6786,8 +6798,8 @@
       <c r="L147" s="4">
         <v>32</v>
       </c>
-      <c r="M147" s="5">
-        <v>5.55</v>
+      <c r="M147" s="6">
+        <v>5550</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6803,8 +6815,8 @@
       <c r="D148" s="4">
         <v>9</v>
       </c>
-      <c r="E148" s="4">
-        <v>1.337</v>
+      <c r="E148" s="5">
+        <v>1337</v>
       </c>
       <c r="F148" s="4">
         <v>783</v>
@@ -6812,8 +6824,8 @@
       <c r="G148" s="4">
         <v>912</v>
       </c>
-      <c r="H148" s="4">
-        <v>1.335</v>
+      <c r="H148" s="5">
+        <v>1335</v>
       </c>
       <c r="I148" s="4">
         <v>806</v>
@@ -6827,8 +6839,8 @@
       <c r="L148" s="4">
         <v>41</v>
       </c>
-      <c r="M148" s="5">
-        <v>5.3529999999999998</v>
+      <c r="M148" s="6">
+        <v>5353</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6842,8 +6854,8 @@
       <c r="D149" s="4">
         <v>65</v>
       </c>
-      <c r="E149" s="4">
-        <v>2.1539999999999999</v>
+      <c r="E149" s="5">
+        <v>2154</v>
       </c>
       <c r="F149" s="4">
         <v>572</v>
@@ -6851,8 +6863,8 @@
       <c r="G149" s="4">
         <v>862</v>
       </c>
-      <c r="H149" s="4">
-        <v>1.0780000000000001</v>
+      <c r="H149" s="5">
+        <v>1078</v>
       </c>
       <c r="I149" s="4">
         <v>442</v>
@@ -6866,8 +6878,8 @@
       <c r="L149" s="4">
         <v>53</v>
       </c>
-      <c r="M149" s="5">
-        <v>5.3049999999999997</v>
+      <c r="M149" s="6">
+        <v>5305</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6883,8 +6895,8 @@
       <c r="D150" s="4">
         <v>24</v>
       </c>
-      <c r="E150" s="4">
-        <v>1.516</v>
+      <c r="E150" s="5">
+        <v>1516</v>
       </c>
       <c r="F150" s="4">
         <v>602</v>
@@ -6892,8 +6904,8 @@
       <c r="G150" s="4">
         <v>798</v>
       </c>
-      <c r="H150" s="4">
-        <v>1.1519999999999999</v>
+      <c r="H150" s="5">
+        <v>1152</v>
       </c>
       <c r="I150" s="4">
         <v>667</v>
@@ -6907,8 +6919,8 @@
       <c r="L150" s="4">
         <v>69</v>
       </c>
-      <c r="M150" s="5">
-        <v>4.9050000000000002</v>
+      <c r="M150" s="6">
+        <v>4905</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6922,8 +6934,8 @@
       <c r="D151" s="4">
         <v>139</v>
       </c>
-      <c r="E151" s="4">
-        <v>2.3740000000000001</v>
+      <c r="E151" s="5">
+        <v>2374</v>
       </c>
       <c r="F151" s="4">
         <v>430</v>
@@ -6946,8 +6958,8 @@
       <c r="L151" s="4">
         <v>62</v>
       </c>
-      <c r="M151" s="5">
-        <v>4.8959999999999999</v>
+      <c r="M151" s="6">
+        <v>4896</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6963,8 +6975,8 @@
       <c r="D152" s="4">
         <v>42</v>
       </c>
-      <c r="E152" s="4">
-        <v>1.661</v>
+      <c r="E152" s="5">
+        <v>1661</v>
       </c>
       <c r="F152" s="4">
         <v>332</v>
@@ -6987,8 +6999,8 @@
       <c r="L152" s="4">
         <v>71</v>
       </c>
-      <c r="M152" s="5">
-        <v>4.0839999999999996</v>
+      <c r="M152" s="6">
+        <v>4084</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7002,8 +7014,8 @@
       <c r="D153" s="4">
         <v>244</v>
       </c>
-      <c r="E153" s="4">
-        <v>2.4279999999999999</v>
+      <c r="E153" s="5">
+        <v>2428</v>
       </c>
       <c r="F153" s="4">
         <v>237</v>
@@ -7026,8 +7038,8 @@
       <c r="L153" s="4">
         <v>62</v>
       </c>
-      <c r="M153" s="5">
-        <v>4.22</v>
+      <c r="M153" s="6">
+        <v>4220</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7043,8 +7055,8 @@
       <c r="D154" s="4">
         <v>60</v>
       </c>
-      <c r="E154" s="4">
-        <v>1.5840000000000001</v>
+      <c r="E154" s="5">
+        <v>1584</v>
       </c>
       <c r="F154" s="4">
         <v>156</v>
@@ -7067,8 +7079,8 @@
       <c r="L154" s="4">
         <v>74</v>
       </c>
-      <c r="M154" s="5">
-        <v>3.2989999999999999</v>
+      <c r="M154" s="6">
+        <v>3299</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7082,8 +7094,8 @@
       <c r="D155" s="4">
         <v>365</v>
       </c>
-      <c r="E155" s="4">
-        <v>1.8879999999999999</v>
+      <c r="E155" s="5">
+        <v>1888</v>
       </c>
       <c r="F155" s="4">
         <v>74</v>
@@ -7106,8 +7118,8 @@
       <c r="L155" s="4">
         <v>54</v>
       </c>
-      <c r="M155" s="5">
-        <v>3.282</v>
+      <c r="M155" s="6">
+        <v>3282</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7123,8 +7135,8 @@
       <c r="D156" s="4">
         <v>67</v>
       </c>
-      <c r="E156" s="4">
-        <v>1.198</v>
+      <c r="E156" s="5">
+        <v>1198</v>
       </c>
       <c r="F156" s="4">
         <v>59</v>
@@ -7147,8 +7159,8 @@
       <c r="L156" s="4">
         <v>58</v>
       </c>
-      <c r="M156" s="5">
-        <v>2.1160000000000001</v>
+      <c r="M156" s="6">
+        <v>2116</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7162,8 +7174,8 @@
       <c r="D157" s="4">
         <v>499</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.1850000000000001</v>
+      <c r="E157" s="5">
+        <v>1185</v>
       </c>
       <c r="F157" s="4">
         <v>39</v>
@@ -7186,8 +7198,8 @@
       <c r="L157" s="4">
         <v>54</v>
       </c>
-      <c r="M157" s="5">
-        <v>2.363</v>
+      <c r="M157" s="6">
+        <v>2363</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7203,8 +7215,8 @@
       <c r="D158" s="4">
         <v>463</v>
       </c>
-      <c r="E158" s="4">
-        <v>1.4219999999999999</v>
+      <c r="E158" s="5">
+        <v>1422</v>
       </c>
       <c r="F158" s="4">
         <v>24</v>
@@ -7227,8 +7239,8 @@
       <c r="L158" s="4">
         <v>58</v>
       </c>
-      <c r="M158" s="5">
-        <v>2.5129999999999999</v>
+      <c r="M158" s="6">
+        <v>2513</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7239,11 +7251,11 @@
       <c r="C159" s="4">
         <v>674</v>
       </c>
-      <c r="D159" s="4">
-        <v>1.171</v>
-      </c>
-      <c r="E159" s="4">
-        <v>1.1100000000000001</v>
+      <c r="D159" s="5">
+        <v>1171</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1110</v>
       </c>
       <c r="F159" s="4">
         <v>29</v>
@@ -7266,54 +7278,54 @@
       <c r="L159" s="4">
         <v>34</v>
       </c>
-      <c r="M159" s="5">
-        <v>3.2719999999999998</v>
+      <c r="M159" s="6">
+        <v>3272</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="D160" s="5">
-        <v>3.5649999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>26.29</v>
-      </c>
-      <c r="F160" s="5">
-        <v>8.4290000000000003</v>
-      </c>
-      <c r="G160" s="5">
-        <v>16.672000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>32.345999999999997</v>
-      </c>
-      <c r="I160" s="5">
-        <v>20.018999999999998</v>
-      </c>
-      <c r="J160" s="5">
-        <v>1.663</v>
-      </c>
-      <c r="K160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>1384</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3565</v>
+      </c>
+      <c r="E160" s="6">
+        <v>26290</v>
+      </c>
+      <c r="F160" s="6">
+        <v>8429</v>
+      </c>
+      <c r="G160" s="6">
+        <v>16672</v>
+      </c>
+      <c r="H160" s="6">
+        <v>32346</v>
+      </c>
+      <c r="I160" s="6">
+        <v>20019</v>
+      </c>
+      <c r="J160" s="6">
+        <v>1663</v>
+      </c>
+      <c r="K160" s="8">
         <v>196</v>
       </c>
-      <c r="L160" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M160" s="5">
-        <v>111.67400000000001</v>
+      <c r="L160" s="6">
+        <v>1110</v>
+      </c>
+      <c r="M160" s="6">
+        <v>111674</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7385,8 +7397,8 @@
       <c r="L162" s="4">
         <v>10</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.3859999999999999</v>
+      <c r="M162" s="6">
+        <v>1386</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7424,8 +7436,8 @@
       <c r="L163" s="4">
         <v>3</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.155</v>
+      <c r="M163" s="6">
+        <v>1155</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7465,7 +7477,7 @@
       <c r="L164" s="4">
         <v>2</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>908</v>
       </c>
     </row>
@@ -7504,7 +7516,7 @@
       <c r="L165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>664</v>
       </c>
     </row>
@@ -7545,7 +7557,7 @@
       <c r="L166" s="4">
         <v>3</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>743</v>
       </c>
     </row>
@@ -7584,7 +7596,7 @@
       <c r="L167" s="4">
         <v>2</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>596</v>
       </c>
     </row>
@@ -7625,7 +7637,7 @@
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>739</v>
       </c>
     </row>
@@ -7664,7 +7676,7 @@
       <c r="L169" s="4">
         <v>6</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>605</v>
       </c>
     </row>
@@ -7705,7 +7717,7 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>799</v>
       </c>
     </row>
@@ -7744,7 +7756,7 @@
       <c r="L171" s="4">
         <v>4</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>692</v>
       </c>
     </row>
@@ -7785,7 +7797,7 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>852</v>
       </c>
     </row>
@@ -7824,7 +7836,7 @@
       <c r="L173" s="4">
         <v>2</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>828</v>
       </c>
     </row>
@@ -7865,7 +7877,7 @@
       <c r="L174" s="4">
         <v>4</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>947</v>
       </c>
     </row>
@@ -7904,7 +7916,7 @@
       <c r="L175" s="4">
         <v>2</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>986</v>
       </c>
     </row>
@@ -7945,7 +7957,7 @@
       <c r="L176" s="4">
         <v>5</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>990</v>
       </c>
     </row>
@@ -7984,8 +7996,8 @@
       <c r="L177" s="4">
         <v>3</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.0169999999999999</v>
+      <c r="M177" s="6">
+        <v>1017</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8025,7 +8037,7 @@
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>856</v>
       </c>
     </row>
@@ -8064,7 +8076,7 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>878</v>
       </c>
     </row>
@@ -8105,7 +8117,7 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>747</v>
       </c>
     </row>
@@ -8144,7 +8156,7 @@
       <c r="L181" s="4">
         <v>5</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>808</v>
       </c>
     </row>
@@ -8185,7 +8197,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>520</v>
       </c>
     </row>
@@ -8224,7 +8236,7 @@
       <c r="L183" s="4">
         <v>5</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>623</v>
       </c>
     </row>
@@ -8265,7 +8277,7 @@
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>930</v>
       </c>
     </row>
@@ -8304,54 +8316,54 @@
       <c r="L185" s="4">
         <v>3</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.246</v>
+      <c r="M185" s="6">
+        <v>1246</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>226</v>
       </c>
-      <c r="D186" s="5">
-        <v>1.196</v>
-      </c>
-      <c r="E186" s="5">
-        <v>6.2830000000000004</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>3.0070000000000001</v>
-      </c>
-      <c r="H186" s="5">
-        <v>5.1680000000000001</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.6440000000000001</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="D186" s="6">
+        <v>1196</v>
+      </c>
+      <c r="E186" s="6">
+        <v>6283</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1705</v>
+      </c>
+      <c r="G186" s="6">
+        <v>3007</v>
+      </c>
+      <c r="H186" s="6">
+        <v>5168</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2644</v>
+      </c>
+      <c r="J186" s="8">
         <v>189</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>20</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>77</v>
       </c>
-      <c r="M186" s="5">
-        <v>20.515000000000001</v>
+      <c r="M186" s="6">
+        <v>20515</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8405,14 +8417,14 @@
       <c r="F188" s="4">
         <v>1</v>
       </c>
-      <c r="G188" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="H188" s="4">
-        <v>6.383</v>
-      </c>
-      <c r="I188" s="4">
-        <v>1.2490000000000001</v>
+      <c r="G188" s="5">
+        <v>1495</v>
+      </c>
+      <c r="H188" s="5">
+        <v>6383</v>
+      </c>
+      <c r="I188" s="5">
+        <v>1249</v>
       </c>
       <c r="J188" s="4">
         <v>19</v>
@@ -8423,8 +8435,8 @@
       <c r="L188" s="4">
         <v>141</v>
       </c>
-      <c r="M188" s="5">
-        <v>9.3420000000000005</v>
+      <c r="M188" s="6">
+        <v>9342</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8444,14 +8456,14 @@
       <c r="F189" s="4">
         <v>1</v>
       </c>
-      <c r="G189" s="4">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="H189" s="4">
-        <v>6.1139999999999999</v>
-      </c>
-      <c r="I189" s="4">
-        <v>1.883</v>
+      <c r="G189" s="5">
+        <v>1185</v>
+      </c>
+      <c r="H189" s="5">
+        <v>6114</v>
+      </c>
+      <c r="I189" s="5">
+        <v>1883</v>
       </c>
       <c r="J189" s="4">
         <v>27</v>
@@ -8462,8 +8474,8 @@
       <c r="L189" s="4">
         <v>140</v>
       </c>
-      <c r="M189" s="5">
-        <v>9.4030000000000005</v>
+      <c r="M189" s="6">
+        <v>9403</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8488,11 +8500,11 @@
       <c r="G190" s="4">
         <v>970</v>
       </c>
-      <c r="H190" s="4">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="I190" s="4">
-        <v>3.1139999999999999</v>
+      <c r="H190" s="5">
+        <v>2212</v>
+      </c>
+      <c r="I190" s="5">
+        <v>3114</v>
       </c>
       <c r="J190" s="4">
         <v>252</v>
@@ -8503,8 +8515,8 @@
       <c r="L190" s="4">
         <v>148</v>
       </c>
-      <c r="M190" s="5">
-        <v>6.7839999999999998</v>
+      <c r="M190" s="6">
+        <v>6784</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8527,11 +8539,11 @@
       <c r="G191" s="4">
         <v>734</v>
       </c>
-      <c r="H191" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I191" s="4">
-        <v>3.9580000000000002</v>
+      <c r="H191" s="5">
+        <v>1600</v>
+      </c>
+      <c r="I191" s="5">
+        <v>3958</v>
       </c>
       <c r="J191" s="4">
         <v>371</v>
@@ -8542,8 +8554,8 @@
       <c r="L191" s="4">
         <v>206</v>
       </c>
-      <c r="M191" s="5">
-        <v>7.0469999999999997</v>
+      <c r="M191" s="6">
+        <v>7047</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8568,11 +8580,11 @@
       <c r="G192" s="4">
         <v>496</v>
       </c>
-      <c r="H192" s="4">
-        <v>1.984</v>
-      </c>
-      <c r="I192" s="4">
-        <v>3.2320000000000002</v>
+      <c r="H192" s="5">
+        <v>1984</v>
+      </c>
+      <c r="I192" s="5">
+        <v>3232</v>
       </c>
       <c r="J192" s="4">
         <v>420</v>
@@ -8583,8 +8595,8 @@
       <c r="L192" s="4">
         <v>196</v>
       </c>
-      <c r="M192" s="5">
-        <v>6.8609999999999998</v>
+      <c r="M192" s="6">
+        <v>6861</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8607,11 +8619,11 @@
       <c r="G193" s="4">
         <v>442</v>
       </c>
-      <c r="H193" s="4">
-        <v>1.677</v>
-      </c>
-      <c r="I193" s="4">
-        <v>3.9820000000000002</v>
+      <c r="H193" s="5">
+        <v>1677</v>
+      </c>
+      <c r="I193" s="5">
+        <v>3982</v>
       </c>
       <c r="J193" s="4">
         <v>507</v>
@@ -8622,8 +8634,8 @@
       <c r="L193" s="4">
         <v>308</v>
       </c>
-      <c r="M193" s="5">
-        <v>7.7519999999999998</v>
+      <c r="M193" s="6">
+        <v>7752</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8648,11 +8660,11 @@
       <c r="G194" s="4">
         <v>425</v>
       </c>
-      <c r="H194" s="4">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="I194" s="4">
-        <v>3.367</v>
+      <c r="H194" s="5">
+        <v>2376</v>
+      </c>
+      <c r="I194" s="5">
+        <v>3367</v>
       </c>
       <c r="J194" s="4">
         <v>513</v>
@@ -8663,8 +8675,8 @@
       <c r="L194" s="4">
         <v>276</v>
       </c>
-      <c r="M194" s="5">
-        <v>7.8070000000000004</v>
+      <c r="M194" s="6">
+        <v>7807</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8687,11 +8699,11 @@
       <c r="G195" s="4">
         <v>462</v>
       </c>
-      <c r="H195" s="4">
-        <v>2.4870000000000001</v>
-      </c>
-      <c r="I195" s="4">
-        <v>3.5110000000000001</v>
+      <c r="H195" s="5">
+        <v>2487</v>
+      </c>
+      <c r="I195" s="5">
+        <v>3511</v>
       </c>
       <c r="J195" s="4">
         <v>500</v>
@@ -8702,8 +8714,8 @@
       <c r="L195" s="4">
         <v>278</v>
       </c>
-      <c r="M195" s="5">
-        <v>8.5340000000000007</v>
+      <c r="M195" s="6">
+        <v>8534</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8728,11 +8740,11 @@
       <c r="G196" s="4">
         <v>624</v>
       </c>
-      <c r="H196" s="4">
-        <v>2.5529999999999999</v>
-      </c>
-      <c r="I196" s="4">
-        <v>2.9140000000000001</v>
+      <c r="H196" s="5">
+        <v>2553</v>
+      </c>
+      <c r="I196" s="5">
+        <v>2914</v>
       </c>
       <c r="J196" s="4">
         <v>540</v>
@@ -8743,8 +8755,8 @@
       <c r="L196" s="4">
         <v>298</v>
       </c>
-      <c r="M196" s="5">
-        <v>7.9669999999999996</v>
+      <c r="M196" s="6">
+        <v>7967</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8758,8 +8770,8 @@
       <c r="D197" s="4">
         <v>104</v>
       </c>
-      <c r="E197" s="4">
-        <v>1.083</v>
+      <c r="E197" s="5">
+        <v>1083</v>
       </c>
       <c r="F197" s="4">
         <v>410</v>
@@ -8767,11 +8779,11 @@
       <c r="G197" s="4">
         <v>786</v>
       </c>
-      <c r="H197" s="4">
-        <v>2.84</v>
-      </c>
-      <c r="I197" s="4">
-        <v>3.089</v>
+      <c r="H197" s="5">
+        <v>2840</v>
+      </c>
+      <c r="I197" s="5">
+        <v>3089</v>
       </c>
       <c r="J197" s="4">
         <v>527</v>
@@ -8782,8 +8794,8 @@
       <c r="L197" s="4">
         <v>272</v>
       </c>
-      <c r="M197" s="5">
-        <v>9.234</v>
+      <c r="M197" s="6">
+        <v>9234</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8808,11 +8820,11 @@
       <c r="G198" s="4">
         <v>736</v>
       </c>
-      <c r="H198" s="4">
-        <v>2.1429999999999998</v>
-      </c>
-      <c r="I198" s="4">
-        <v>2.5569999999999999</v>
+      <c r="H198" s="5">
+        <v>2143</v>
+      </c>
+      <c r="I198" s="5">
+        <v>2557</v>
       </c>
       <c r="J198" s="4">
         <v>340</v>
@@ -8823,8 +8835,8 @@
       <c r="L198" s="4">
         <v>235</v>
       </c>
-      <c r="M198" s="5">
-        <v>7.3639999999999999</v>
+      <c r="M198" s="6">
+        <v>7364</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8838,8 +8850,8 @@
       <c r="D199" s="4">
         <v>89</v>
       </c>
-      <c r="E199" s="4">
-        <v>1.3140000000000001</v>
+      <c r="E199" s="5">
+        <v>1314</v>
       </c>
       <c r="F199" s="4">
         <v>567</v>
@@ -8847,11 +8859,11 @@
       <c r="G199" s="4">
         <v>833</v>
       </c>
-      <c r="H199" s="4">
-        <v>2.633</v>
-      </c>
-      <c r="I199" s="4">
-        <v>2.2320000000000002</v>
+      <c r="H199" s="5">
+        <v>2633</v>
+      </c>
+      <c r="I199" s="5">
+        <v>2232</v>
       </c>
       <c r="J199" s="4">
         <v>290</v>
@@ -8862,8 +8874,8 @@
       <c r="L199" s="4">
         <v>229</v>
       </c>
-      <c r="M199" s="5">
-        <v>8.2989999999999995</v>
+      <c r="M199" s="6">
+        <v>8299</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8888,11 +8900,11 @@
       <c r="G200" s="4">
         <v>750</v>
       </c>
-      <c r="H200" s="4">
-        <v>1.855</v>
-      </c>
-      <c r="I200" s="4">
-        <v>2.0659999999999998</v>
+      <c r="H200" s="5">
+        <v>1855</v>
+      </c>
+      <c r="I200" s="5">
+        <v>2066</v>
       </c>
       <c r="J200" s="4">
         <v>218</v>
@@ -8903,8 +8915,8 @@
       <c r="L200" s="4">
         <v>240</v>
       </c>
-      <c r="M200" s="5">
-        <v>6.548</v>
+      <c r="M200" s="6">
+        <v>6548</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8918,8 +8930,8 @@
       <c r="D201" s="4">
         <v>118</v>
       </c>
-      <c r="E201" s="4">
-        <v>1.5249999999999999</v>
+      <c r="E201" s="5">
+        <v>1525</v>
       </c>
       <c r="F201" s="4">
         <v>571</v>
@@ -8927,11 +8939,11 @@
       <c r="G201" s="4">
         <v>919</v>
       </c>
-      <c r="H201" s="4">
-        <v>2.17</v>
-      </c>
-      <c r="I201" s="4">
-        <v>1.502</v>
+      <c r="H201" s="5">
+        <v>2170</v>
+      </c>
+      <c r="I201" s="5">
+        <v>1502</v>
       </c>
       <c r="J201" s="4">
         <v>172</v>
@@ -8942,8 +8954,8 @@
       <c r="L201" s="4">
         <v>228</v>
       </c>
-      <c r="M201" s="5">
-        <v>7.3230000000000004</v>
+      <c r="M201" s="6">
+        <v>7323</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8968,11 +8980,11 @@
       <c r="G202" s="4">
         <v>737</v>
       </c>
-      <c r="H202" s="4">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="I202" s="4">
-        <v>1.5680000000000001</v>
+      <c r="H202" s="5">
+        <v>1797</v>
+      </c>
+      <c r="I202" s="5">
+        <v>1568</v>
       </c>
       <c r="J202" s="4">
         <v>192</v>
@@ -8983,8 +8995,8 @@
       <c r="L202" s="4">
         <v>241</v>
       </c>
-      <c r="M202" s="5">
-        <v>6.1429999999999998</v>
+      <c r="M202" s="6">
+        <v>6143</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8998,8 +9010,8 @@
       <c r="D203" s="4">
         <v>156</v>
       </c>
-      <c r="E203" s="4">
-        <v>1.9990000000000001</v>
+      <c r="E203" s="5">
+        <v>1999</v>
       </c>
       <c r="F203" s="4">
         <v>450</v>
@@ -9007,11 +9019,11 @@
       <c r="G203" s="4">
         <v>800</v>
       </c>
-      <c r="H203" s="4">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="I203" s="4">
-        <v>1.0840000000000001</v>
+      <c r="H203" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I203" s="5">
+        <v>1084</v>
       </c>
       <c r="J203" s="4">
         <v>102</v>
@@ -9022,8 +9034,8 @@
       <c r="L203" s="4">
         <v>166</v>
       </c>
-      <c r="M203" s="5">
-        <v>6.883</v>
+      <c r="M203" s="6">
+        <v>6883</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9039,8 +9051,8 @@
       <c r="D204" s="4">
         <v>46</v>
       </c>
-      <c r="E204" s="4">
-        <v>1.028</v>
+      <c r="E204" s="5">
+        <v>1028</v>
       </c>
       <c r="F204" s="4">
         <v>343</v>
@@ -9048,11 +9060,11 @@
       <c r="G204" s="4">
         <v>629</v>
       </c>
-      <c r="H204" s="4">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="I204" s="4">
-        <v>1.222</v>
+      <c r="H204" s="5">
+        <v>1789</v>
+      </c>
+      <c r="I204" s="5">
+        <v>1222</v>
       </c>
       <c r="J204" s="4">
         <v>109</v>
@@ -9063,8 +9075,8 @@
       <c r="L204" s="4">
         <v>199</v>
       </c>
-      <c r="M204" s="5">
-        <v>5.4269999999999996</v>
+      <c r="M204" s="6">
+        <v>5427</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9078,8 +9090,8 @@
       <c r="D205" s="4">
         <v>253</v>
       </c>
-      <c r="E205" s="4">
-        <v>2.1019999999999999</v>
+      <c r="E205" s="5">
+        <v>2102</v>
       </c>
       <c r="F205" s="4">
         <v>261</v>
@@ -9087,8 +9099,8 @@
       <c r="G205" s="4">
         <v>673</v>
       </c>
-      <c r="H205" s="4">
-        <v>1.734</v>
+      <c r="H205" s="5">
+        <v>1734</v>
       </c>
       <c r="I205" s="4">
         <v>832</v>
@@ -9102,8 +9114,8 @@
       <c r="L205" s="4">
         <v>181</v>
       </c>
-      <c r="M205" s="5">
-        <v>6.2389999999999999</v>
+      <c r="M205" s="6">
+        <v>6239</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9119,8 +9131,8 @@
       <c r="D206" s="4">
         <v>57</v>
       </c>
-      <c r="E206" s="4">
-        <v>1.1259999999999999</v>
+      <c r="E206" s="5">
+        <v>1126</v>
       </c>
       <c r="F206" s="4">
         <v>168</v>
@@ -9128,11 +9140,11 @@
       <c r="G206" s="4">
         <v>493</v>
       </c>
-      <c r="H206" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="I206" s="4">
-        <v>1.288</v>
+      <c r="H206" s="5">
+        <v>1190</v>
+      </c>
+      <c r="I206" s="5">
+        <v>1288</v>
       </c>
       <c r="J206" s="4">
         <v>77</v>
@@ -9143,8 +9155,8 @@
       <c r="L206" s="4">
         <v>165</v>
       </c>
-      <c r="M206" s="5">
-        <v>4.6050000000000004</v>
+      <c r="M206" s="6">
+        <v>4605</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,8 +9170,8 @@
       <c r="D207" s="4">
         <v>295</v>
       </c>
-      <c r="E207" s="4">
-        <v>1.7789999999999999</v>
+      <c r="E207" s="5">
+        <v>1779</v>
       </c>
       <c r="F207" s="4">
         <v>92</v>
@@ -9167,8 +9179,8 @@
       <c r="G207" s="4">
         <v>508</v>
       </c>
-      <c r="H207" s="4">
-        <v>1.1539999999999999</v>
+      <c r="H207" s="5">
+        <v>1154</v>
       </c>
       <c r="I207" s="4">
         <v>764</v>
@@ -9182,8 +9194,8 @@
       <c r="L207" s="4">
         <v>146</v>
       </c>
-      <c r="M207" s="5">
-        <v>4.96</v>
+      <c r="M207" s="6">
+        <v>4960</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9223,8 +9235,8 @@
       <c r="L208" s="4">
         <v>107</v>
       </c>
-      <c r="M208" s="5">
-        <v>3.19</v>
+      <c r="M208" s="6">
+        <v>3190</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9238,8 +9250,8 @@
       <c r="D209" s="4">
         <v>339</v>
       </c>
-      <c r="E209" s="4">
-        <v>1.385</v>
+      <c r="E209" s="5">
+        <v>1385</v>
       </c>
       <c r="F209" s="4">
         <v>32</v>
@@ -9262,8 +9274,8 @@
       <c r="L209" s="4">
         <v>95</v>
       </c>
-      <c r="M209" s="5">
-        <v>3.448</v>
+      <c r="M209" s="6">
+        <v>3448</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9279,8 +9291,8 @@
       <c r="D210" s="4">
         <v>171</v>
       </c>
-      <c r="E210" s="4">
-        <v>1.08</v>
+      <c r="E210" s="5">
+        <v>1080</v>
       </c>
       <c r="F210" s="4">
         <v>24</v>
@@ -9303,8 +9315,8 @@
       <c r="L210" s="4">
         <v>123</v>
       </c>
-      <c r="M210" s="5">
-        <v>2.9990000000000001</v>
+      <c r="M210" s="6">
+        <v>2999</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,8 +9330,8 @@
       <c r="D211" s="4">
         <v>641</v>
       </c>
-      <c r="E211" s="4">
-        <v>1.395</v>
+      <c r="E211" s="5">
+        <v>1395</v>
       </c>
       <c r="F211" s="4">
         <v>17</v>
@@ -9342,54 +9354,54 @@
       <c r="L211" s="4">
         <v>110</v>
       </c>
-      <c r="M211" s="5">
-        <v>3.7250000000000001</v>
+      <c r="M211" s="6">
+        <v>3725</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="D212" s="5">
-        <v>2.88</v>
-      </c>
-      <c r="E212" s="5">
-        <v>20.841999999999999</v>
-      </c>
-      <c r="F212" s="5">
-        <v>7.0529999999999999</v>
-      </c>
-      <c r="G212" s="5">
-        <v>15.88</v>
-      </c>
-      <c r="H212" s="5">
-        <v>50.972000000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>47.598999999999997</v>
-      </c>
-      <c r="J212" s="5">
-        <v>5.46</v>
-      </c>
-      <c r="K212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
+        <v>1501</v>
+      </c>
+      <c r="D212" s="6">
+        <v>2880</v>
+      </c>
+      <c r="E212" s="6">
+        <v>20842</v>
+      </c>
+      <c r="F212" s="6">
+        <v>7053</v>
+      </c>
+      <c r="G212" s="6">
+        <v>15880</v>
+      </c>
+      <c r="H212" s="6">
+        <v>50972</v>
+      </c>
+      <c r="I212" s="6">
+        <v>47599</v>
+      </c>
+      <c r="J212" s="6">
+        <v>5460</v>
+      </c>
+      <c r="K212" s="8">
         <v>969</v>
       </c>
-      <c r="L212" s="5">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="M212" s="5">
-        <v>157.88399999999999</v>
+      <c r="L212" s="6">
+        <v>4728</v>
+      </c>
+      <c r="M212" s="6">
+        <v>157884</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9446,8 +9458,8 @@
       <c r="G214" s="4">
         <v>860</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.952</v>
+      <c r="H214" s="5">
+        <v>1952</v>
       </c>
       <c r="I214" s="4">
         <v>398</v>
@@ -9461,8 +9473,8 @@
       <c r="L214" s="4">
         <v>24</v>
       </c>
-      <c r="M214" s="5">
-        <v>3.2610000000000001</v>
+      <c r="M214" s="6">
+        <v>3261</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9485,8 +9497,8 @@
       <c r="G215" s="4">
         <v>663</v>
       </c>
-      <c r="H215" s="4">
-        <v>1.865</v>
+      <c r="H215" s="5">
+        <v>1865</v>
       </c>
       <c r="I215" s="4">
         <v>638</v>
@@ -9500,8 +9512,8 @@
       <c r="L215" s="4">
         <v>5</v>
       </c>
-      <c r="M215" s="5">
-        <v>3.206</v>
+      <c r="M215" s="6">
+        <v>3206</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9541,8 +9553,8 @@
       <c r="L216" s="4">
         <v>10</v>
       </c>
-      <c r="M216" s="5">
-        <v>2.0030000000000001</v>
+      <c r="M216" s="6">
+        <v>2003</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9580,8 +9592,8 @@
       <c r="L217" s="4">
         <v>7</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.927</v>
+      <c r="M217" s="6">
+        <v>1927</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9621,8 +9633,8 @@
       <c r="L218" s="4">
         <v>3</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.921</v>
+      <c r="M218" s="6">
+        <v>1921</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9660,8 +9672,8 @@
       <c r="L219" s="4">
         <v>4</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.7889999999999999</v>
+      <c r="M219" s="6">
+        <v>1789</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9701,8 +9713,8 @@
       <c r="L220" s="4">
         <v>6</v>
       </c>
-      <c r="M220" s="5">
-        <v>2.1139999999999999</v>
+      <c r="M220" s="6">
+        <v>2114</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9740,8 +9752,8 @@
       <c r="L221" s="4">
         <v>2</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.9890000000000001</v>
+      <c r="M221" s="6">
+        <v>1989</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9781,8 +9793,8 @@
       <c r="L222" s="4">
         <v>7</v>
       </c>
-      <c r="M222" s="5">
-        <v>2.266</v>
+      <c r="M222" s="6">
+        <v>2266</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9820,8 +9832,8 @@
       <c r="L223" s="4">
         <v>8</v>
       </c>
-      <c r="M223" s="5">
-        <v>2.1629999999999998</v>
+      <c r="M223" s="6">
+        <v>2163</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9861,8 +9873,8 @@
       <c r="L224" s="4">
         <v>8</v>
       </c>
-      <c r="M224" s="5">
-        <v>2.286</v>
+      <c r="M224" s="6">
+        <v>2286</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9876,8 +9888,8 @@
       <c r="D225" s="4">
         <v>10</v>
       </c>
-      <c r="E225" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E225" s="5">
+        <v>1007</v>
       </c>
       <c r="F225" s="4">
         <v>330</v>
@@ -9900,8 +9912,8 @@
       <c r="L225" s="4">
         <v>8</v>
       </c>
-      <c r="M225" s="5">
-        <v>2.2000000000000002</v>
+      <c r="M225" s="6">
+        <v>2200</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9941,8 +9953,8 @@
       <c r="L226" s="4">
         <v>5</v>
       </c>
-      <c r="M226" s="5">
-        <v>2.4009999999999998</v>
+      <c r="M226" s="6">
+        <v>2401</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9956,8 +9968,8 @@
       <c r="D227" s="4">
         <v>23</v>
       </c>
-      <c r="E227" s="4">
-        <v>1.2150000000000001</v>
+      <c r="E227" s="5">
+        <v>1215</v>
       </c>
       <c r="F227" s="4">
         <v>351</v>
@@ -9980,8 +9992,8 @@
       <c r="L227" s="4">
         <v>9</v>
       </c>
-      <c r="M227" s="5">
-        <v>2.2810000000000001</v>
+      <c r="M227" s="6">
+        <v>2281</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10021,8 +10033,8 @@
       <c r="L228" s="4">
         <v>14</v>
       </c>
-      <c r="M228" s="5">
-        <v>2.0779999999999998</v>
+      <c r="M228" s="6">
+        <v>2078</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10036,8 +10048,8 @@
       <c r="D229" s="4">
         <v>64</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.3560000000000001</v>
+      <c r="E229" s="5">
+        <v>1356</v>
       </c>
       <c r="F229" s="4">
         <v>245</v>
@@ -10060,8 +10072,8 @@
       <c r="L229" s="4">
         <v>16</v>
       </c>
-      <c r="M229" s="5">
-        <v>2.2280000000000002</v>
+      <c r="M229" s="6">
+        <v>2228</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10101,8 +10113,8 @@
       <c r="L230" s="4">
         <v>8</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.764</v>
+      <c r="M230" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10116,8 +10128,8 @@
       <c r="D231" s="4">
         <v>108</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.2150000000000001</v>
+      <c r="E231" s="5">
+        <v>1215</v>
       </c>
       <c r="F231" s="4">
         <v>114</v>
@@ -10140,8 +10152,8 @@
       <c r="L231" s="4">
         <v>15</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.7949999999999999</v>
+      <c r="M231" s="6">
+        <v>1795</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10181,8 +10193,8 @@
       <c r="L232" s="4">
         <v>14</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.379</v>
+      <c r="M232" s="6">
+        <v>1379</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10196,8 +10208,8 @@
       <c r="D233" s="4">
         <v>214</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.014</v>
+      <c r="E233" s="5">
+        <v>1014</v>
       </c>
       <c r="F233" s="4">
         <v>38</v>
@@ -10220,8 +10232,8 @@
       <c r="L233" s="4">
         <v>10</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.458</v>
+      <c r="M233" s="6">
+        <v>1458</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10261,7 +10273,7 @@
       <c r="L234" s="4">
         <v>10</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>990</v>
       </c>
     </row>
@@ -10300,8 +10312,8 @@
       <c r="L235" s="4">
         <v>8</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.2529999999999999</v>
+      <c r="M235" s="6">
+        <v>1253</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10317,8 +10329,8 @@
       <c r="D236" s="4">
         <v>365</v>
       </c>
-      <c r="E236" s="4">
-        <v>1.0669999999999999</v>
+      <c r="E236" s="5">
+        <v>1067</v>
       </c>
       <c r="F236" s="4">
         <v>11</v>
@@ -10341,8 +10353,8 @@
       <c r="L236" s="4">
         <v>6</v>
       </c>
-      <c r="M236" s="5">
-        <v>1.623</v>
+      <c r="M236" s="6">
+        <v>1623</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10380,54 +10392,54 @@
       <c r="L237" s="4">
         <v>4</v>
       </c>
-      <c r="M237" s="5">
-        <v>2.1120000000000001</v>
+      <c r="M237" s="6">
+        <v>2112</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="8">
         <v>288</v>
       </c>
-      <c r="D238" s="5">
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="E238" s="5">
-        <v>15.584</v>
-      </c>
-      <c r="F238" s="5">
-        <v>4.6820000000000004</v>
-      </c>
-      <c r="G238" s="5">
-        <v>7.375</v>
-      </c>
-      <c r="H238" s="5">
-        <v>10.85</v>
-      </c>
-      <c r="I238" s="5">
-        <v>6.6189999999999998</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="D238" s="6">
+        <v>2304</v>
+      </c>
+      <c r="E238" s="6">
+        <v>15584</v>
+      </c>
+      <c r="F238" s="6">
+        <v>4682</v>
+      </c>
+      <c r="G238" s="6">
+        <v>7375</v>
+      </c>
+      <c r="H238" s="6">
+        <v>10850</v>
+      </c>
+      <c r="I238" s="6">
+        <v>6619</v>
+      </c>
+      <c r="J238" s="8">
         <v>544</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>30</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>211</v>
       </c>
-      <c r="M238" s="5">
-        <v>48.487000000000002</v>
+      <c r="M238" s="6">
+        <v>48487</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10484,8 +10496,8 @@
       <c r="G240" s="4">
         <v>992</v>
       </c>
-      <c r="H240" s="4">
-        <v>3.8380000000000001</v>
+      <c r="H240" s="5">
+        <v>3838</v>
       </c>
       <c r="I240" s="4">
         <v>866</v>
@@ -10499,8 +10511,8 @@
       <c r="L240" s="4">
         <v>39</v>
       </c>
-      <c r="M240" s="5">
-        <v>5.7679999999999998</v>
+      <c r="M240" s="6">
+        <v>5768</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10523,11 +10535,11 @@
       <c r="G241" s="4">
         <v>656</v>
       </c>
-      <c r="H241" s="4">
-        <v>3.516</v>
-      </c>
-      <c r="I241" s="4">
-        <v>1.3009999999999999</v>
+      <c r="H241" s="5">
+        <v>3516</v>
+      </c>
+      <c r="I241" s="5">
+        <v>1301</v>
       </c>
       <c r="J241" s="4">
         <v>7</v>
@@ -10538,8 +10550,8 @@
       <c r="L241" s="4">
         <v>33</v>
       </c>
-      <c r="M241" s="5">
-        <v>5.5449999999999999</v>
+      <c r="M241" s="6">
+        <v>5545</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10564,11 +10576,11 @@
       <c r="G242" s="4">
         <v>614</v>
       </c>
-      <c r="H242" s="4">
-        <v>1.393</v>
-      </c>
-      <c r="I242" s="4">
-        <v>1.879</v>
+      <c r="H242" s="5">
+        <v>1393</v>
+      </c>
+      <c r="I242" s="5">
+        <v>1879</v>
       </c>
       <c r="J242" s="4">
         <v>120</v>
@@ -10579,8 +10591,8 @@
       <c r="L242" s="4">
         <v>28</v>
       </c>
-      <c r="M242" s="5">
-        <v>4.0709999999999997</v>
+      <c r="M242" s="6">
+        <v>4071</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10606,8 +10618,8 @@
       <c r="H243" s="4">
         <v>909</v>
       </c>
-      <c r="I243" s="4">
-        <v>1.982</v>
+      <c r="I243" s="5">
+        <v>1982</v>
       </c>
       <c r="J243" s="4">
         <v>159</v>
@@ -10618,8 +10630,8 @@
       <c r="L243" s="4">
         <v>25</v>
       </c>
-      <c r="M243" s="5">
-        <v>3.7040000000000002</v>
+      <c r="M243" s="6">
+        <v>3704</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10644,11 +10656,11 @@
       <c r="G244" s="4">
         <v>361</v>
       </c>
-      <c r="H244" s="4">
-        <v>1.325</v>
-      </c>
-      <c r="I244" s="4">
-        <v>1.599</v>
+      <c r="H244" s="5">
+        <v>1325</v>
+      </c>
+      <c r="I244" s="5">
+        <v>1599</v>
       </c>
       <c r="J244" s="4">
         <v>163</v>
@@ -10659,8 +10671,8 @@
       <c r="L244" s="4">
         <v>28</v>
       </c>
-      <c r="M244" s="5">
-        <v>3.9390000000000001</v>
+      <c r="M244" s="6">
+        <v>3939</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10686,8 +10698,8 @@
       <c r="H245" s="4">
         <v>991</v>
       </c>
-      <c r="I245" s="4">
-        <v>1.4670000000000001</v>
+      <c r="I245" s="5">
+        <v>1467</v>
       </c>
       <c r="J245" s="4">
         <v>146</v>
@@ -10698,8 +10710,8 @@
       <c r="L245" s="4">
         <v>39</v>
       </c>
-      <c r="M245" s="5">
-        <v>3.5680000000000001</v>
+      <c r="M245" s="6">
+        <v>3568</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10724,11 +10736,11 @@
       <c r="G246" s="4">
         <v>421</v>
       </c>
-      <c r="H246" s="4">
-        <v>1.381</v>
-      </c>
-      <c r="I246" s="4">
-        <v>1.244</v>
+      <c r="H246" s="5">
+        <v>1381</v>
+      </c>
+      <c r="I246" s="5">
+        <v>1244</v>
       </c>
       <c r="J246" s="4">
         <v>187</v>
@@ -10739,8 +10751,8 @@
       <c r="L246" s="4">
         <v>33</v>
       </c>
-      <c r="M246" s="5">
-        <v>4.1550000000000002</v>
+      <c r="M246" s="6">
+        <v>4155</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10763,11 +10775,11 @@
       <c r="G247" s="4">
         <v>439</v>
       </c>
-      <c r="H247" s="4">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="I247" s="4">
-        <v>1.121</v>
+      <c r="H247" s="5">
+        <v>1122</v>
+      </c>
+      <c r="I247" s="5">
+        <v>1121</v>
       </c>
       <c r="J247" s="4">
         <v>139</v>
@@ -10778,8 +10790,8 @@
       <c r="L247" s="4">
         <v>46</v>
       </c>
-      <c r="M247" s="5">
-        <v>4.1360000000000001</v>
+      <c r="M247" s="6">
+        <v>4136</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10804,11 +10816,11 @@
       <c r="G248" s="4">
         <v>753</v>
       </c>
-      <c r="H248" s="4">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="I248" s="4">
-        <v>1.0640000000000001</v>
+      <c r="H248" s="5">
+        <v>1418</v>
+      </c>
+      <c r="I248" s="5">
+        <v>1064</v>
       </c>
       <c r="J248" s="4">
         <v>201</v>
@@ -10819,8 +10831,8 @@
       <c r="L248" s="4">
         <v>23</v>
       </c>
-      <c r="M248" s="5">
-        <v>4.71</v>
+      <c r="M248" s="6">
+        <v>4710</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10834,8 +10846,8 @@
       <c r="D249" s="4">
         <v>32</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.2150000000000001</v>
+      <c r="E249" s="5">
+        <v>1215</v>
       </c>
       <c r="F249" s="4">
         <v>510</v>
@@ -10843,8 +10855,8 @@
       <c r="G249" s="4">
         <v>658</v>
       </c>
-      <c r="H249" s="4">
-        <v>1.1060000000000001</v>
+      <c r="H249" s="5">
+        <v>1106</v>
       </c>
       <c r="I249" s="4">
         <v>883</v>
@@ -10858,8 +10870,8 @@
       <c r="L249" s="4">
         <v>32</v>
       </c>
-      <c r="M249" s="5">
-        <v>4.5910000000000002</v>
+      <c r="M249" s="6">
+        <v>4591</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10884,8 +10896,8 @@
       <c r="G250" s="4">
         <v>769</v>
       </c>
-      <c r="H250" s="4">
-        <v>1.145</v>
+      <c r="H250" s="5">
+        <v>1145</v>
       </c>
       <c r="I250" s="4">
         <v>859</v>
@@ -10899,8 +10911,8 @@
       <c r="L250" s="4">
         <v>32</v>
       </c>
-      <c r="M250" s="5">
-        <v>4.6589999999999998</v>
+      <c r="M250" s="6">
+        <v>4659</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10914,8 +10926,8 @@
       <c r="D251" s="4">
         <v>28</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.609</v>
+      <c r="E251" s="5">
+        <v>1609</v>
       </c>
       <c r="F251" s="4">
         <v>761</v>
@@ -10938,8 +10950,8 @@
       <c r="L251" s="4">
         <v>33</v>
       </c>
-      <c r="M251" s="5">
-        <v>4.72</v>
+      <c r="M251" s="6">
+        <v>4720</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10955,8 +10967,8 @@
       <c r="D252" s="4">
         <v>10</v>
       </c>
-      <c r="E252" s="4">
-        <v>1.1519999999999999</v>
+      <c r="E252" s="5">
+        <v>1152</v>
       </c>
       <c r="F252" s="4">
         <v>934</v>
@@ -10979,8 +10991,8 @@
       <c r="L252" s="4">
         <v>43</v>
       </c>
-      <c r="M252" s="5">
-        <v>4.7839999999999998</v>
+      <c r="M252" s="6">
+        <v>4784</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10994,8 +11006,8 @@
       <c r="D253" s="4">
         <v>56</v>
       </c>
-      <c r="E253" s="4">
-        <v>2.0840000000000001</v>
+      <c r="E253" s="5">
+        <v>2084</v>
       </c>
       <c r="F253" s="4">
         <v>789</v>
@@ -11018,8 +11030,8 @@
       <c r="L253" s="4">
         <v>49</v>
       </c>
-      <c r="M253" s="5">
-        <v>4.9130000000000003</v>
+      <c r="M253" s="6">
+        <v>4913</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11035,8 +11047,8 @@
       <c r="D254" s="4">
         <v>11</v>
       </c>
-      <c r="E254" s="4">
-        <v>1.425</v>
+      <c r="E254" s="5">
+        <v>1425</v>
       </c>
       <c r="F254" s="4">
         <v>778</v>
@@ -11059,8 +11071,8 @@
       <c r="L254" s="4">
         <v>59</v>
       </c>
-      <c r="M254" s="5">
-        <v>4.4829999999999997</v>
+      <c r="M254" s="6">
+        <v>4483</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11074,8 +11086,8 @@
       <c r="D255" s="4">
         <v>92</v>
       </c>
-      <c r="E255" s="4">
-        <v>2.4540000000000002</v>
+      <c r="E255" s="5">
+        <v>2454</v>
       </c>
       <c r="F255" s="4">
         <v>480</v>
@@ -11098,8 +11110,8 @@
       <c r="L255" s="4">
         <v>48</v>
       </c>
-      <c r="M255" s="5">
-        <v>4.6109999999999998</v>
+      <c r="M255" s="6">
+        <v>4611</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11115,8 +11127,8 @@
       <c r="D256" s="4">
         <v>30</v>
       </c>
-      <c r="E256" s="4">
-        <v>1.5289999999999999</v>
+      <c r="E256" s="5">
+        <v>1529</v>
       </c>
       <c r="F256" s="4">
         <v>420</v>
@@ -11139,8 +11151,8 @@
       <c r="L256" s="4">
         <v>53</v>
       </c>
-      <c r="M256" s="5">
-        <v>3.8090000000000002</v>
+      <c r="M256" s="6">
+        <v>3809</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11154,8 +11166,8 @@
       <c r="D257" s="4">
         <v>165</v>
       </c>
-      <c r="E257" s="4">
-        <v>2.4079999999999999</v>
+      <c r="E257" s="5">
+        <v>2408</v>
       </c>
       <c r="F257" s="4">
         <v>208</v>
@@ -11178,8 +11190,8 @@
       <c r="L257" s="4">
         <v>39</v>
       </c>
-      <c r="M257" s="5">
-        <v>3.9020000000000001</v>
+      <c r="M257" s="6">
+        <v>3902</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11195,8 +11207,8 @@
       <c r="D258" s="4">
         <v>43</v>
       </c>
-      <c r="E258" s="4">
-        <v>1.627</v>
+      <c r="E258" s="5">
+        <v>1627</v>
       </c>
       <c r="F258" s="4">
         <v>189</v>
@@ -11219,8 +11231,8 @@
       <c r="L258" s="4">
         <v>40</v>
       </c>
-      <c r="M258" s="5">
-        <v>3.2570000000000001</v>
+      <c r="M258" s="6">
+        <v>3257</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11234,8 +11246,8 @@
       <c r="D259" s="4">
         <v>324</v>
       </c>
-      <c r="E259" s="4">
-        <v>2</v>
+      <c r="E259" s="5">
+        <v>2000</v>
       </c>
       <c r="F259" s="4">
         <v>84</v>
@@ -11258,8 +11270,8 @@
       <c r="L259" s="4">
         <v>50</v>
       </c>
-      <c r="M259" s="5">
-        <v>3.242</v>
+      <c r="M259" s="6">
+        <v>3242</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11275,8 +11287,8 @@
       <c r="D260" s="4">
         <v>62</v>
       </c>
-      <c r="E260" s="4">
-        <v>1.2190000000000001</v>
+      <c r="E260" s="5">
+        <v>1219</v>
       </c>
       <c r="F260" s="4">
         <v>58</v>
@@ -11299,8 +11311,8 @@
       <c r="L260" s="4">
         <v>34</v>
       </c>
-      <c r="M260" s="5">
-        <v>2.177</v>
+      <c r="M260" s="6">
+        <v>2177</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11314,8 +11326,8 @@
       <c r="D261" s="4">
         <v>412</v>
       </c>
-      <c r="E261" s="4">
-        <v>1.29</v>
+      <c r="E261" s="5">
+        <v>1290</v>
       </c>
       <c r="F261" s="4">
         <v>29</v>
@@ -11338,8 +11350,8 @@
       <c r="L261" s="4">
         <v>36</v>
       </c>
-      <c r="M261" s="5">
-        <v>2.2890000000000001</v>
+      <c r="M261" s="6">
+        <v>2289</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11355,8 +11367,8 @@
       <c r="D262" s="4">
         <v>402</v>
       </c>
-      <c r="E262" s="4">
-        <v>1.766</v>
+      <c r="E262" s="5">
+        <v>1766</v>
       </c>
       <c r="F262" s="4">
         <v>39</v>
@@ -11379,8 +11391,8 @@
       <c r="L262" s="4">
         <v>52</v>
       </c>
-      <c r="M262" s="5">
-        <v>2.9569999999999999</v>
+      <c r="M262" s="6">
+        <v>2957</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11391,11 +11403,11 @@
       <c r="C263" s="4">
         <v>337</v>
       </c>
-      <c r="D263" s="4">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="E263" s="4">
-        <v>1.585</v>
+      <c r="D263" s="5">
+        <v>1364</v>
+      </c>
+      <c r="E263" s="5">
+        <v>1585</v>
       </c>
       <c r="F263" s="4">
         <v>5</v>
@@ -11418,54 +11430,54 @@
       <c r="L263" s="4">
         <v>41</v>
       </c>
-      <c r="M263" s="5">
-        <v>3.6139999999999999</v>
+      <c r="M263" s="6">
+        <v>3614</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>734</v>
       </c>
-      <c r="D264" s="5">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>26.04</v>
-      </c>
-      <c r="F264" s="5">
-        <v>8.7159999999999993</v>
-      </c>
-      <c r="G264" s="5">
-        <v>11.903</v>
-      </c>
-      <c r="H264" s="5">
-        <v>24.795000000000002</v>
-      </c>
-      <c r="I264" s="5">
-        <v>19.350999999999999</v>
-      </c>
-      <c r="J264" s="5">
-        <v>1.724</v>
-      </c>
-      <c r="K264" s="5">
+      <c r="D264" s="6">
+        <v>3227</v>
+      </c>
+      <c r="E264" s="6">
+        <v>26040</v>
+      </c>
+      <c r="F264" s="6">
+        <v>8716</v>
+      </c>
+      <c r="G264" s="6">
+        <v>11903</v>
+      </c>
+      <c r="H264" s="6">
+        <v>24795</v>
+      </c>
+      <c r="I264" s="6">
+        <v>19351</v>
+      </c>
+      <c r="J264" s="6">
+        <v>1724</v>
+      </c>
+      <c r="K264" s="8">
         <v>179</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>935</v>
       </c>
-      <c r="M264" s="5">
-        <v>97.603999999999999</v>
+      <c r="M264" s="6">
+        <v>97604</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11519,14 +11531,14 @@
       <c r="F266" s="4">
         <v>14</v>
       </c>
-      <c r="G266" s="4">
-        <v>5.3019999999999996</v>
-      </c>
-      <c r="H266" s="4">
-        <v>10.967000000000001</v>
-      </c>
-      <c r="I266" s="4">
-        <v>1.9259999999999999</v>
+      <c r="G266" s="5">
+        <v>5302</v>
+      </c>
+      <c r="H266" s="5">
+        <v>10967</v>
+      </c>
+      <c r="I266" s="5">
+        <v>1926</v>
       </c>
       <c r="J266" s="4">
         <v>12</v>
@@ -11537,8 +11549,8 @@
       <c r="L266" s="4">
         <v>141</v>
       </c>
-      <c r="M266" s="5">
-        <v>18.59</v>
+      <c r="M266" s="6">
+        <v>18590</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11558,14 +11570,14 @@
       <c r="F267" s="4">
         <v>2</v>
       </c>
-      <c r="G267" s="4">
-        <v>4.4850000000000003</v>
-      </c>
-      <c r="H267" s="4">
-        <v>10.59</v>
-      </c>
-      <c r="I267" s="4">
-        <v>2.9119999999999999</v>
+      <c r="G267" s="5">
+        <v>4485</v>
+      </c>
+      <c r="H267" s="5">
+        <v>10590</v>
+      </c>
+      <c r="I267" s="5">
+        <v>2912</v>
       </c>
       <c r="J267" s="4">
         <v>34</v>
@@ -11576,8 +11588,8 @@
       <c r="L267" s="4">
         <v>24</v>
       </c>
-      <c r="M267" s="5">
-        <v>18.414000000000001</v>
+      <c r="M267" s="6">
+        <v>18414</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11599,14 +11611,14 @@
       <c r="F268" s="4">
         <v>160</v>
       </c>
-      <c r="G268" s="4">
-        <v>3.86</v>
-      </c>
-      <c r="H268" s="4">
-        <v>3.6989999999999998</v>
-      </c>
-      <c r="I268" s="4">
-        <v>4.0490000000000004</v>
+      <c r="G268" s="5">
+        <v>3860</v>
+      </c>
+      <c r="H268" s="5">
+        <v>3699</v>
+      </c>
+      <c r="I268" s="5">
+        <v>4049</v>
       </c>
       <c r="J268" s="4">
         <v>231</v>
@@ -11617,8 +11629,8 @@
       <c r="L268" s="4">
         <v>42</v>
       </c>
-      <c r="M268" s="5">
-        <v>12.323</v>
+      <c r="M268" s="6">
+        <v>12323</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11638,14 +11650,14 @@
       <c r="F269" s="4">
         <v>208</v>
       </c>
-      <c r="G269" s="4">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="H269" s="4">
-        <v>2.702</v>
-      </c>
-      <c r="I269" s="4">
-        <v>4.8010000000000002</v>
+      <c r="G269" s="5">
+        <v>3095</v>
+      </c>
+      <c r="H269" s="5">
+        <v>2702</v>
+      </c>
+      <c r="I269" s="5">
+        <v>4801</v>
       </c>
       <c r="J269" s="4">
         <v>285</v>
@@ -11656,8 +11668,8 @@
       <c r="L269" s="4">
         <v>38</v>
       </c>
-      <c r="M269" s="5">
-        <v>12.153</v>
+      <c r="M269" s="6">
+        <v>12153</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11676,17 +11688,17 @@
       <c r="E270" s="4">
         <v>147</v>
       </c>
-      <c r="F270" s="4">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="G270" s="4">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="H270" s="4">
-        <v>3.5859999999999999</v>
-      </c>
-      <c r="I270" s="4">
-        <v>3.5790000000000002</v>
+      <c r="F270" s="5">
+        <v>2104</v>
+      </c>
+      <c r="G270" s="5">
+        <v>1604</v>
+      </c>
+      <c r="H270" s="5">
+        <v>3586</v>
+      </c>
+      <c r="I270" s="5">
+        <v>3579</v>
       </c>
       <c r="J270" s="4">
         <v>287</v>
@@ -11697,8 +11709,8 @@
       <c r="L270" s="4">
         <v>34</v>
       </c>
-      <c r="M270" s="5">
-        <v>11.605</v>
+      <c r="M270" s="6">
+        <v>11605</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11715,17 +11727,17 @@
       <c r="E271" s="4">
         <v>464</v>
       </c>
-      <c r="F271" s="4">
-        <v>2.2290000000000001</v>
-      </c>
-      <c r="G271" s="4">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="H271" s="4">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="I271" s="4">
-        <v>3.819</v>
+      <c r="F271" s="5">
+        <v>2229</v>
+      </c>
+      <c r="G271" s="5">
+        <v>1102</v>
+      </c>
+      <c r="H271" s="5">
+        <v>2733</v>
+      </c>
+      <c r="I271" s="5">
+        <v>3819</v>
       </c>
       <c r="J271" s="4">
         <v>332</v>
@@ -11736,8 +11748,8 @@
       <c r="L271" s="4">
         <v>62</v>
       </c>
-      <c r="M271" s="5">
-        <v>11.898999999999999</v>
+      <c r="M271" s="6">
+        <v>11899</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11753,20 +11765,20 @@
       <c r="D272" s="4">
         <v>286</v>
       </c>
-      <c r="E272" s="4">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="F272" s="4">
-        <v>2.1890000000000001</v>
-      </c>
-      <c r="G272" s="4">
-        <v>1.169</v>
-      </c>
-      <c r="H272" s="4">
-        <v>4.165</v>
-      </c>
-      <c r="I272" s="4">
-        <v>3.1110000000000002</v>
+      <c r="E272" s="5">
+        <v>1053</v>
+      </c>
+      <c r="F272" s="5">
+        <v>2189</v>
+      </c>
+      <c r="G272" s="5">
+        <v>1169</v>
+      </c>
+      <c r="H272" s="5">
+        <v>4165</v>
+      </c>
+      <c r="I272" s="5">
+        <v>3111</v>
       </c>
       <c r="J272" s="4">
         <v>380</v>
@@ -11777,8 +11789,8 @@
       <c r="L272" s="4">
         <v>59</v>
       </c>
-      <c r="M272" s="5">
-        <v>12.493</v>
+      <c r="M272" s="6">
+        <v>12493</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11792,20 +11804,20 @@
       <c r="D273" s="4">
         <v>787</v>
       </c>
-      <c r="E273" s="4">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="F273" s="4">
-        <v>1.587</v>
-      </c>
-      <c r="G273" s="4">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="H273" s="4">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="I273" s="4">
-        <v>2.6709999999999998</v>
+      <c r="E273" s="5">
+        <v>2473</v>
+      </c>
+      <c r="F273" s="5">
+        <v>1587</v>
+      </c>
+      <c r="G273" s="5">
+        <v>1051</v>
+      </c>
+      <c r="H273" s="5">
+        <v>3148</v>
+      </c>
+      <c r="I273" s="5">
+        <v>2671</v>
       </c>
       <c r="J273" s="4">
         <v>265</v>
@@ -11816,8 +11828,8 @@
       <c r="L273" s="4">
         <v>48</v>
       </c>
-      <c r="M273" s="5">
-        <v>12.319000000000001</v>
+      <c r="M273" s="6">
+        <v>12319</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11833,20 +11845,20 @@
       <c r="D274" s="4">
         <v>210</v>
       </c>
-      <c r="E274" s="4">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="F274" s="4">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="G274" s="4">
-        <v>1.9810000000000001</v>
-      </c>
-      <c r="H274" s="4">
-        <v>3.8860000000000001</v>
-      </c>
-      <c r="I274" s="4">
-        <v>2.2690000000000001</v>
+      <c r="E274" s="5">
+        <v>2051</v>
+      </c>
+      <c r="F274" s="5">
+        <v>1852</v>
+      </c>
+      <c r="G274" s="5">
+        <v>1981</v>
+      </c>
+      <c r="H274" s="5">
+        <v>3886</v>
+      </c>
+      <c r="I274" s="5">
+        <v>2269</v>
       </c>
       <c r="J274" s="4">
         <v>432</v>
@@ -11857,8 +11869,8 @@
       <c r="L274" s="4">
         <v>55</v>
       </c>
-      <c r="M274" s="5">
-        <v>12.81</v>
+      <c r="M274" s="6">
+        <v>12810</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11872,20 +11884,20 @@
       <c r="D275" s="4">
         <v>696</v>
       </c>
-      <c r="E275" s="4">
-        <v>3.8460000000000001</v>
-      </c>
-      <c r="F275" s="4">
-        <v>1.236</v>
-      </c>
-      <c r="G275" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="H275" s="4">
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="I275" s="4">
-        <v>1.998</v>
+      <c r="E275" s="5">
+        <v>3846</v>
+      </c>
+      <c r="F275" s="5">
+        <v>1236</v>
+      </c>
+      <c r="G275" s="5">
+        <v>1540</v>
+      </c>
+      <c r="H275" s="5">
+        <v>2925</v>
+      </c>
+      <c r="I275" s="5">
+        <v>1998</v>
       </c>
       <c r="J275" s="4">
         <v>267</v>
@@ -11896,8 +11908,8 @@
       <c r="L275" s="4">
         <v>63</v>
       </c>
-      <c r="M275" s="5">
-        <v>12.863</v>
+      <c r="M275" s="6">
+        <v>12863</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11913,20 +11925,20 @@
       <c r="D276" s="4">
         <v>138</v>
       </c>
-      <c r="E276" s="4">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="F276" s="4">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="G276" s="4">
-        <v>1.81</v>
-      </c>
-      <c r="H276" s="4">
-        <v>3.0510000000000002</v>
-      </c>
-      <c r="I276" s="4">
-        <v>1.792</v>
+      <c r="E276" s="5">
+        <v>2406</v>
+      </c>
+      <c r="F276" s="5">
+        <v>2094</v>
+      </c>
+      <c r="G276" s="5">
+        <v>1810</v>
+      </c>
+      <c r="H276" s="5">
+        <v>3051</v>
+      </c>
+      <c r="I276" s="5">
+        <v>1792</v>
       </c>
       <c r="J276" s="4">
         <v>200</v>
@@ -11937,8 +11949,8 @@
       <c r="L276" s="4">
         <v>50</v>
       </c>
-      <c r="M276" s="5">
-        <v>11.596</v>
+      <c r="M276" s="6">
+        <v>11596</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11952,20 +11964,20 @@
       <c r="D277" s="4">
         <v>685</v>
       </c>
-      <c r="E277" s="4">
-        <v>4.1529999999999996</v>
-      </c>
-      <c r="F277" s="4">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="G277" s="4">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="H277" s="4">
-        <v>2.117</v>
-      </c>
-      <c r="I277" s="4">
-        <v>1.3</v>
+      <c r="E277" s="5">
+        <v>4153</v>
+      </c>
+      <c r="F277" s="5">
+        <v>1382</v>
+      </c>
+      <c r="G277" s="5">
+        <v>1461</v>
+      </c>
+      <c r="H277" s="5">
+        <v>2117</v>
+      </c>
+      <c r="I277" s="5">
+        <v>1300</v>
       </c>
       <c r="J277" s="4">
         <v>117</v>
@@ -11976,8 +11988,8 @@
       <c r="L277" s="4">
         <v>59</v>
       </c>
-      <c r="M277" s="5">
-        <v>11.494</v>
+      <c r="M277" s="6">
+        <v>11494</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -11993,20 +12005,20 @@
       <c r="D278" s="4">
         <v>134</v>
       </c>
-      <c r="E278" s="4">
-        <v>2.516</v>
-      </c>
-      <c r="F278" s="4">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="G278" s="4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="H278" s="4">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="I278" s="4">
-        <v>1.1739999999999999</v>
+      <c r="E278" s="5">
+        <v>2516</v>
+      </c>
+      <c r="F278" s="5">
+        <v>2119</v>
+      </c>
+      <c r="G278" s="5">
+        <v>1844</v>
+      </c>
+      <c r="H278" s="5">
+        <v>2139</v>
+      </c>
+      <c r="I278" s="5">
+        <v>1174</v>
       </c>
       <c r="J278" s="4">
         <v>145</v>
@@ -12017,8 +12029,8 @@
       <c r="L278" s="4">
         <v>51</v>
       </c>
-      <c r="M278" s="5">
-        <v>10.196999999999999</v>
+      <c r="M278" s="6">
+        <v>10197</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12032,17 +12044,17 @@
       <c r="D279" s="4">
         <v>761</v>
       </c>
-      <c r="E279" s="4">
-        <v>4.4950000000000001</v>
-      </c>
-      <c r="F279" s="4">
-        <v>1.242</v>
-      </c>
-      <c r="G279" s="4">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="H279" s="4">
-        <v>1.587</v>
+      <c r="E279" s="5">
+        <v>4495</v>
+      </c>
+      <c r="F279" s="5">
+        <v>1242</v>
+      </c>
+      <c r="G279" s="5">
+        <v>1364</v>
+      </c>
+      <c r="H279" s="5">
+        <v>1587</v>
       </c>
       <c r="I279" s="4">
         <v>697</v>
@@ -12056,8 +12068,8 @@
       <c r="L279" s="4">
         <v>52</v>
       </c>
-      <c r="M279" s="5">
-        <v>10.512</v>
+      <c r="M279" s="6">
+        <v>10512</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12073,17 +12085,17 @@
       <c r="D280" s="4">
         <v>207</v>
       </c>
-      <c r="E280" s="4">
-        <v>3.032</v>
-      </c>
-      <c r="F280" s="4">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="G280" s="4">
-        <v>1.5920000000000001</v>
-      </c>
-      <c r="H280" s="4">
-        <v>1.9790000000000001</v>
+      <c r="E280" s="5">
+        <v>3032</v>
+      </c>
+      <c r="F280" s="5">
+        <v>1882</v>
+      </c>
+      <c r="G280" s="5">
+        <v>1592</v>
+      </c>
+      <c r="H280" s="5">
+        <v>1979</v>
       </c>
       <c r="I280" s="4">
         <v>859</v>
@@ -12097,8 +12109,8 @@
       <c r="L280" s="4">
         <v>60</v>
       </c>
-      <c r="M280" s="5">
-        <v>9.7750000000000004</v>
+      <c r="M280" s="6">
+        <v>9775</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12112,8 +12124,8 @@
       <c r="D281" s="4">
         <v>909</v>
       </c>
-      <c r="E281" s="4">
-        <v>4.7990000000000004</v>
+      <c r="E281" s="5">
+        <v>4799</v>
       </c>
       <c r="F281" s="4">
         <v>866</v>
@@ -12121,8 +12133,8 @@
       <c r="G281" s="4">
         <v>957</v>
       </c>
-      <c r="H281" s="4">
-        <v>1.419</v>
+      <c r="H281" s="5">
+        <v>1419</v>
       </c>
       <c r="I281" s="4">
         <v>416</v>
@@ -12136,8 +12148,8 @@
       <c r="L281" s="4">
         <v>50</v>
       </c>
-      <c r="M281" s="5">
-        <v>9.8279999999999994</v>
+      <c r="M281" s="6">
+        <v>9828</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12153,17 +12165,17 @@
       <c r="D282" s="4">
         <v>233</v>
       </c>
-      <c r="E282" s="4">
-        <v>3.2160000000000002</v>
-      </c>
-      <c r="F282" s="4">
-        <v>1.097</v>
+      <c r="E282" s="5">
+        <v>3216</v>
+      </c>
+      <c r="F282" s="5">
+        <v>1097</v>
       </c>
       <c r="G282" s="4">
         <v>971</v>
       </c>
-      <c r="H282" s="4">
-        <v>1.7250000000000001</v>
+      <c r="H282" s="5">
+        <v>1725</v>
       </c>
       <c r="I282" s="4">
         <v>503</v>
@@ -12177,8 +12189,8 @@
       <c r="L282" s="4">
         <v>56</v>
       </c>
-      <c r="M282" s="5">
-        <v>7.9169999999999998</v>
+      <c r="M282" s="6">
+        <v>7917</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12189,11 +12201,11 @@
       <c r="C283" s="4">
         <v>468</v>
       </c>
-      <c r="D283" s="4">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="E283" s="4">
-        <v>4.67</v>
+      <c r="D283" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E283" s="5">
+        <v>4670</v>
       </c>
       <c r="F283" s="4">
         <v>409</v>
@@ -12201,8 +12213,8 @@
       <c r="G283" s="4">
         <v>589</v>
       </c>
-      <c r="H283" s="4">
-        <v>1.069</v>
+      <c r="H283" s="5">
+        <v>1069</v>
       </c>
       <c r="I283" s="4">
         <v>253</v>
@@ -12216,8 +12228,8 @@
       <c r="L283" s="4">
         <v>57</v>
       </c>
-      <c r="M283" s="5">
-        <v>8.5489999999999995</v>
+      <c r="M283" s="6">
+        <v>8549</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12233,8 +12245,8 @@
       <c r="D284" s="4">
         <v>306</v>
       </c>
-      <c r="E284" s="4">
-        <v>3.44</v>
+      <c r="E284" s="5">
+        <v>3440</v>
       </c>
       <c r="F284" s="4">
         <v>410</v>
@@ -12242,8 +12254,8 @@
       <c r="G284" s="4">
         <v>683</v>
       </c>
-      <c r="H284" s="4">
-        <v>1.0109999999999999</v>
+      <c r="H284" s="5">
+        <v>1011</v>
       </c>
       <c r="I284" s="4">
         <v>530</v>
@@ -12257,8 +12269,8 @@
       <c r="L284" s="4">
         <v>57</v>
       </c>
-      <c r="M284" s="5">
-        <v>6.5670000000000002</v>
+      <c r="M284" s="6">
+        <v>6567</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12269,11 +12281,11 @@
       <c r="C285" s="4">
         <v>644</v>
       </c>
-      <c r="D285" s="4">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="E285" s="4">
-        <v>3.988</v>
+      <c r="D285" s="5">
+        <v>1166</v>
+      </c>
+      <c r="E285" s="5">
+        <v>3988</v>
       </c>
       <c r="F285" s="4">
         <v>137</v>
@@ -12296,8 +12308,8 @@
       <c r="L285" s="4">
         <v>48</v>
       </c>
-      <c r="M285" s="5">
-        <v>7.1180000000000003</v>
+      <c r="M285" s="6">
+        <v>7118</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12313,8 +12325,8 @@
       <c r="D286" s="4">
         <v>281</v>
       </c>
-      <c r="E286" s="4">
-        <v>2.5720000000000001</v>
+      <c r="E286" s="5">
+        <v>2572</v>
       </c>
       <c r="F286" s="4">
         <v>129</v>
@@ -12337,8 +12349,8 @@
       <c r="L286" s="4">
         <v>41</v>
       </c>
-      <c r="M286" s="5">
-        <v>4.2910000000000004</v>
+      <c r="M286" s="6">
+        <v>4291</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12349,11 +12361,11 @@
       <c r="C287" s="4">
         <v>776</v>
       </c>
-      <c r="D287" s="4">
-        <v>1.141</v>
-      </c>
-      <c r="E287" s="4">
-        <v>2.56</v>
+      <c r="D287" s="5">
+        <v>1141</v>
+      </c>
+      <c r="E287" s="5">
+        <v>2560</v>
       </c>
       <c r="F287" s="4">
         <v>42</v>
@@ -12376,8 +12388,8 @@
       <c r="L287" s="4">
         <v>49</v>
       </c>
-      <c r="M287" s="5">
-        <v>5.2060000000000004</v>
+      <c r="M287" s="6">
+        <v>5206</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12393,8 +12405,8 @@
       <c r="D288" s="4">
         <v>675</v>
       </c>
-      <c r="E288" s="4">
-        <v>2.57</v>
+      <c r="E288" s="5">
+        <v>2570</v>
       </c>
       <c r="F288" s="4">
         <v>65</v>
@@ -12417,8 +12429,8 @@
       <c r="L288" s="4">
         <v>36</v>
       </c>
-      <c r="M288" s="5">
-        <v>4.4580000000000002</v>
+      <c r="M288" s="6">
+        <v>4458</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12426,14 +12438,14 @@
       <c r="B289" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C289" s="4">
-        <v>1.903</v>
-      </c>
-      <c r="D289" s="4">
-        <v>2.121</v>
-      </c>
-      <c r="E289" s="4">
-        <v>2.3540000000000001</v>
+      <c r="C289" s="5">
+        <v>1903</v>
+      </c>
+      <c r="D289" s="5">
+        <v>2121</v>
+      </c>
+      <c r="E289" s="5">
+        <v>2354</v>
       </c>
       <c r="F289" s="4">
         <v>21</v>
@@ -12456,54 +12468,54 @@
       <c r="L289" s="4">
         <v>51</v>
       </c>
-      <c r="M289" s="5">
-        <v>6.8440000000000003</v>
+      <c r="M289" s="6">
+        <v>6844</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>6.2649999999999997</v>
-      </c>
-      <c r="D290" s="5">
-        <v>13.73</v>
-      </c>
-      <c r="E290" s="5">
-        <v>57.761000000000003</v>
-      </c>
-      <c r="F290" s="5">
-        <v>23.475999999999999</v>
-      </c>
-      <c r="G290" s="5">
-        <v>37.796999999999997</v>
-      </c>
-      <c r="H290" s="5">
-        <v>66.212999999999994</v>
-      </c>
-      <c r="I290" s="5">
-        <v>39.720999999999997</v>
-      </c>
-      <c r="J290" s="5">
-        <v>3.2949999999999999</v>
-      </c>
-      <c r="K290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>6265</v>
+      </c>
+      <c r="D290" s="6">
+        <v>13730</v>
+      </c>
+      <c r="E290" s="6">
+        <v>57761</v>
+      </c>
+      <c r="F290" s="6">
+        <v>23476</v>
+      </c>
+      <c r="G290" s="6">
+        <v>37797</v>
+      </c>
+      <c r="H290" s="6">
+        <v>66213</v>
+      </c>
+      <c r="I290" s="6">
+        <v>39721</v>
+      </c>
+      <c r="J290" s="6">
+        <v>3295</v>
+      </c>
+      <c r="K290" s="8">
         <v>280</v>
       </c>
-      <c r="L290" s="5">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="M290" s="5">
-        <v>249.821</v>
+      <c r="L290" s="6">
+        <v>1283</v>
+      </c>
+      <c r="M290" s="6">
+        <v>249821</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12557,14 +12569,14 @@
       <c r="F292" s="4">
         <v>4</v>
       </c>
-      <c r="G292" s="4">
-        <v>5.0869999999999997</v>
-      </c>
-      <c r="H292" s="4">
-        <v>10.391999999999999</v>
-      </c>
-      <c r="I292" s="4">
-        <v>1.756</v>
+      <c r="G292" s="5">
+        <v>5087</v>
+      </c>
+      <c r="H292" s="5">
+        <v>10392</v>
+      </c>
+      <c r="I292" s="5">
+        <v>1756</v>
       </c>
       <c r="J292" s="4">
         <v>10</v>
@@ -12575,8 +12587,8 @@
       <c r="L292" s="4">
         <v>143</v>
       </c>
-      <c r="M292" s="5">
-        <v>17.562000000000001</v>
+      <c r="M292" s="6">
+        <v>17562</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12596,14 +12608,14 @@
       <c r="F293" s="4">
         <v>6</v>
       </c>
-      <c r="G293" s="4">
-        <v>4.3129999999999997</v>
-      </c>
-      <c r="H293" s="4">
-        <v>10.337999999999999</v>
-      </c>
-      <c r="I293" s="4">
-        <v>2.6</v>
+      <c r="G293" s="5">
+        <v>4313</v>
+      </c>
+      <c r="H293" s="5">
+        <v>10338</v>
+      </c>
+      <c r="I293" s="5">
+        <v>2600</v>
       </c>
       <c r="J293" s="4">
         <v>12</v>
@@ -12614,8 +12626,8 @@
       <c r="L293" s="4">
         <v>46</v>
       </c>
-      <c r="M293" s="5">
-        <v>17.617999999999999</v>
+      <c r="M293" s="6">
+        <v>17618</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12637,14 +12649,14 @@
       <c r="F294" s="4">
         <v>205</v>
       </c>
-      <c r="G294" s="4">
-        <v>3.6120000000000001</v>
-      </c>
-      <c r="H294" s="4">
-        <v>4.1689999999999996</v>
-      </c>
-      <c r="I294" s="4">
-        <v>3.5750000000000002</v>
+      <c r="G294" s="5">
+        <v>3612</v>
+      </c>
+      <c r="H294" s="5">
+        <v>4169</v>
+      </c>
+      <c r="I294" s="5">
+        <v>3575</v>
       </c>
       <c r="J294" s="4">
         <v>156</v>
@@ -12655,8 +12667,8 @@
       <c r="L294" s="4">
         <v>61</v>
       </c>
-      <c r="M294" s="5">
-        <v>12.052</v>
+      <c r="M294" s="6">
+        <v>12052</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12676,14 +12688,14 @@
       <c r="F295" s="4">
         <v>239</v>
       </c>
-      <c r="G295" s="4">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="H295" s="4">
-        <v>3.1179999999999999</v>
-      </c>
-      <c r="I295" s="4">
-        <v>4.5250000000000004</v>
+      <c r="G295" s="5">
+        <v>3275</v>
+      </c>
+      <c r="H295" s="5">
+        <v>3118</v>
+      </c>
+      <c r="I295" s="5">
+        <v>4525</v>
       </c>
       <c r="J295" s="4">
         <v>190</v>
@@ -12694,8 +12706,8 @@
       <c r="L295" s="4">
         <v>73</v>
       </c>
-      <c r="M295" s="5">
-        <v>12.47</v>
+      <c r="M295" s="6">
+        <v>12470</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12714,17 +12726,17 @@
       <c r="E296" s="4">
         <v>178</v>
       </c>
-      <c r="F296" s="4">
-        <v>2.028</v>
-      </c>
-      <c r="G296" s="4">
-        <v>1.802</v>
-      </c>
-      <c r="H296" s="4">
-        <v>4.2060000000000004</v>
-      </c>
-      <c r="I296" s="4">
-        <v>3.2320000000000002</v>
+      <c r="F296" s="5">
+        <v>2028</v>
+      </c>
+      <c r="G296" s="5">
+        <v>1802</v>
+      </c>
+      <c r="H296" s="5">
+        <v>4206</v>
+      </c>
+      <c r="I296" s="5">
+        <v>3232</v>
       </c>
       <c r="J296" s="4">
         <v>258</v>
@@ -12735,8 +12747,8 @@
       <c r="L296" s="4">
         <v>70</v>
       </c>
-      <c r="M296" s="5">
-        <v>12.025</v>
+      <c r="M296" s="6">
+        <v>12025</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12753,17 +12765,17 @@
       <c r="E297" s="4">
         <v>529</v>
       </c>
-      <c r="F297" s="4">
-        <v>2.2090000000000001</v>
-      </c>
-      <c r="G297" s="4">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="H297" s="4">
-        <v>3.1139999999999999</v>
-      </c>
-      <c r="I297" s="4">
-        <v>3.3940000000000001</v>
+      <c r="F297" s="5">
+        <v>2209</v>
+      </c>
+      <c r="G297" s="5">
+        <v>1386</v>
+      </c>
+      <c r="H297" s="5">
+        <v>3114</v>
+      </c>
+      <c r="I297" s="5">
+        <v>3394</v>
       </c>
       <c r="J297" s="4">
         <v>265</v>
@@ -12774,8 +12786,8 @@
       <c r="L297" s="4">
         <v>91</v>
       </c>
-      <c r="M297" s="5">
-        <v>12.148999999999999</v>
+      <c r="M297" s="6">
+        <v>12149</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12794,17 +12806,17 @@
       <c r="E298" s="4">
         <v>902</v>
       </c>
-      <c r="F298" s="4">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="G298" s="4">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="H298" s="4">
-        <v>4.3120000000000003</v>
-      </c>
-      <c r="I298" s="4">
-        <v>2.577</v>
+      <c r="F298" s="5">
+        <v>2119</v>
+      </c>
+      <c r="G298" s="5">
+        <v>1283</v>
+      </c>
+      <c r="H298" s="5">
+        <v>4312</v>
+      </c>
+      <c r="I298" s="5">
+        <v>2577</v>
       </c>
       <c r="J298" s="4">
         <v>286</v>
@@ -12815,8 +12827,8 @@
       <c r="L298" s="4">
         <v>99</v>
       </c>
-      <c r="M298" s="5">
-        <v>11.853999999999999</v>
+      <c r="M298" s="6">
+        <v>11854</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12830,20 +12842,20 @@
       <c r="D299" s="4">
         <v>784</v>
       </c>
-      <c r="E299" s="4">
-        <v>2.39</v>
-      </c>
-      <c r="F299" s="4">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="G299" s="4">
-        <v>1.143</v>
-      </c>
-      <c r="H299" s="4">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="I299" s="4">
-        <v>2.1349999999999998</v>
+      <c r="E299" s="5">
+        <v>2390</v>
+      </c>
+      <c r="F299" s="5">
+        <v>1632</v>
+      </c>
+      <c r="G299" s="5">
+        <v>1143</v>
+      </c>
+      <c r="H299" s="5">
+        <v>3332</v>
+      </c>
+      <c r="I299" s="5">
+        <v>2135</v>
       </c>
       <c r="J299" s="4">
         <v>185</v>
@@ -12854,8 +12866,8 @@
       <c r="L299" s="4">
         <v>92</v>
       </c>
-      <c r="M299" s="5">
-        <v>11.901</v>
+      <c r="M299" s="6">
+        <v>11901</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12871,20 +12883,20 @@
       <c r="D300" s="4">
         <v>136</v>
       </c>
-      <c r="E300" s="4">
-        <v>1.827</v>
-      </c>
-      <c r="F300" s="4">
-        <v>1.8540000000000001</v>
-      </c>
-      <c r="G300" s="4">
-        <v>2.177</v>
-      </c>
-      <c r="H300" s="4">
-        <v>4.141</v>
-      </c>
-      <c r="I300" s="4">
-        <v>1.8280000000000001</v>
+      <c r="E300" s="5">
+        <v>1827</v>
+      </c>
+      <c r="F300" s="5">
+        <v>1854</v>
+      </c>
+      <c r="G300" s="5">
+        <v>2177</v>
+      </c>
+      <c r="H300" s="5">
+        <v>4141</v>
+      </c>
+      <c r="I300" s="5">
+        <v>1828</v>
       </c>
       <c r="J300" s="4">
         <v>276</v>
@@ -12895,8 +12907,8 @@
       <c r="L300" s="4">
         <v>79</v>
       </c>
-      <c r="M300" s="5">
-        <v>12.382999999999999</v>
+      <c r="M300" s="6">
+        <v>12383</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12910,20 +12922,20 @@
       <c r="D301" s="4">
         <v>767</v>
       </c>
-      <c r="E301" s="4">
-        <v>3.6680000000000001</v>
-      </c>
-      <c r="F301" s="4">
-        <v>1.238</v>
-      </c>
-      <c r="G301" s="4">
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="H301" s="4">
-        <v>3.0379999999999998</v>
-      </c>
-      <c r="I301" s="4">
-        <v>1.3939999999999999</v>
+      <c r="E301" s="5">
+        <v>3668</v>
+      </c>
+      <c r="F301" s="5">
+        <v>1238</v>
+      </c>
+      <c r="G301" s="5">
+        <v>1751</v>
+      </c>
+      <c r="H301" s="5">
+        <v>3038</v>
+      </c>
+      <c r="I301" s="5">
+        <v>1394</v>
       </c>
       <c r="J301" s="4">
         <v>163</v>
@@ -12934,8 +12946,8 @@
       <c r="L301" s="4">
         <v>82</v>
       </c>
-      <c r="M301" s="5">
-        <v>12.33</v>
+      <c r="M301" s="6">
+        <v>12330</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12951,20 +12963,20 @@
       <c r="D302" s="4">
         <v>113</v>
       </c>
-      <c r="E302" s="4">
-        <v>1.907</v>
-      </c>
-      <c r="F302" s="4">
-        <v>1.927</v>
-      </c>
-      <c r="G302" s="4">
-        <v>1.97</v>
-      </c>
-      <c r="H302" s="4">
-        <v>3.1520000000000001</v>
-      </c>
-      <c r="I302" s="4">
-        <v>1.325</v>
+      <c r="E302" s="5">
+        <v>1907</v>
+      </c>
+      <c r="F302" s="5">
+        <v>1927</v>
+      </c>
+      <c r="G302" s="5">
+        <v>1970</v>
+      </c>
+      <c r="H302" s="5">
+        <v>3152</v>
+      </c>
+      <c r="I302" s="5">
+        <v>1325</v>
       </c>
       <c r="J302" s="4">
         <v>131</v>
@@ -12975,8 +12987,8 @@
       <c r="L302" s="4">
         <v>96</v>
       </c>
-      <c r="M302" s="5">
-        <v>10.680999999999999</v>
+      <c r="M302" s="6">
+        <v>10681</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -12990,17 +13002,17 @@
       <c r="D303" s="4">
         <v>619</v>
       </c>
-      <c r="E303" s="4">
-        <v>3.5819999999999999</v>
-      </c>
-      <c r="F303" s="4">
-        <v>1.296</v>
-      </c>
-      <c r="G303" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="H303" s="4">
-        <v>2.1230000000000002</v>
+      <c r="E303" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F303" s="5">
+        <v>1296</v>
+      </c>
+      <c r="G303" s="5">
+        <v>1594</v>
+      </c>
+      <c r="H303" s="5">
+        <v>2123</v>
       </c>
       <c r="I303" s="4">
         <v>859</v>
@@ -13014,8 +13026,8 @@
       <c r="L303" s="4">
         <v>84</v>
       </c>
-      <c r="M303" s="5">
-        <v>10.452</v>
+      <c r="M303" s="6">
+        <v>10452</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13031,17 +13043,17 @@
       <c r="D304" s="4">
         <v>85</v>
       </c>
-      <c r="E304" s="4">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="F304" s="4">
-        <v>1.984</v>
-      </c>
-      <c r="G304" s="4">
-        <v>2.101</v>
-      </c>
-      <c r="H304" s="4">
-        <v>2.2530000000000001</v>
+      <c r="E304" s="5">
+        <v>1938</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1984</v>
+      </c>
+      <c r="G304" s="5">
+        <v>2101</v>
+      </c>
+      <c r="H304" s="5">
+        <v>2253</v>
       </c>
       <c r="I304" s="4">
         <v>895</v>
@@ -13055,8 +13067,8 @@
       <c r="L304" s="4">
         <v>100</v>
       </c>
-      <c r="M304" s="5">
-        <v>9.4789999999999992</v>
+      <c r="M304" s="6">
+        <v>9479</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13070,17 +13082,17 @@
       <c r="D305" s="4">
         <v>655</v>
       </c>
-      <c r="E305" s="4">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="F305" s="4">
-        <v>1.145</v>
-      </c>
-      <c r="G305" s="4">
-        <v>1.391</v>
-      </c>
-      <c r="H305" s="4">
-        <v>1.59</v>
+      <c r="E305" s="5">
+        <v>3708</v>
+      </c>
+      <c r="F305" s="5">
+        <v>1145</v>
+      </c>
+      <c r="G305" s="5">
+        <v>1391</v>
+      </c>
+      <c r="H305" s="5">
+        <v>1590</v>
       </c>
       <c r="I305" s="4">
         <v>458</v>
@@ -13094,8 +13106,8 @@
       <c r="L305" s="4">
         <v>83</v>
       </c>
-      <c r="M305" s="5">
-        <v>9.3620000000000001</v>
+      <c r="M305" s="6">
+        <v>9362</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13111,17 +13123,17 @@
       <c r="D306" s="4">
         <v>122</v>
       </c>
-      <c r="E306" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="F306" s="4">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="G306" s="4">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="H306" s="4">
-        <v>1.9419999999999999</v>
+      <c r="E306" s="5">
+        <v>2196</v>
+      </c>
+      <c r="F306" s="5">
+        <v>1527</v>
+      </c>
+      <c r="G306" s="5">
+        <v>1773</v>
+      </c>
+      <c r="H306" s="5">
+        <v>1942</v>
       </c>
       <c r="I306" s="4">
         <v>700</v>
@@ -13135,8 +13147,8 @@
       <c r="L306" s="4">
         <v>83</v>
       </c>
-      <c r="M306" s="5">
-        <v>8.4429999999999996</v>
+      <c r="M306" s="6">
+        <v>8443</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13150,17 +13162,17 @@
       <c r="D307" s="4">
         <v>697</v>
       </c>
-      <c r="E307" s="4">
-        <v>3.7040000000000002</v>
+      <c r="E307" s="5">
+        <v>3704</v>
       </c>
       <c r="F307" s="4">
         <v>723</v>
       </c>
-      <c r="G307" s="4">
-        <v>1.006</v>
-      </c>
-      <c r="H307" s="4">
-        <v>1.036</v>
+      <c r="G307" s="5">
+        <v>1006</v>
+      </c>
+      <c r="H307" s="5">
+        <v>1036</v>
       </c>
       <c r="I307" s="4">
         <v>261</v>
@@ -13174,8 +13186,8 @@
       <c r="L307" s="4">
         <v>79</v>
       </c>
-      <c r="M307" s="5">
-        <v>7.9</v>
+      <c r="M307" s="6">
+        <v>7900</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13191,17 +13203,17 @@
       <c r="D308" s="4">
         <v>138</v>
       </c>
-      <c r="E308" s="4">
-        <v>2.351</v>
+      <c r="E308" s="5">
+        <v>2351</v>
       </c>
       <c r="F308" s="4">
         <v>876</v>
       </c>
-      <c r="G308" s="4">
-        <v>1.079</v>
-      </c>
-      <c r="H308" s="4">
-        <v>1.4530000000000001</v>
+      <c r="G308" s="5">
+        <v>1079</v>
+      </c>
+      <c r="H308" s="5">
+        <v>1453</v>
       </c>
       <c r="I308" s="4">
         <v>443</v>
@@ -13215,8 +13227,8 @@
       <c r="L308" s="4">
         <v>67</v>
       </c>
-      <c r="M308" s="5">
-        <v>6.5129999999999999</v>
+      <c r="M308" s="6">
+        <v>6513</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13230,8 +13242,8 @@
       <c r="D309" s="4">
         <v>711</v>
       </c>
-      <c r="E309" s="4">
-        <v>3.419</v>
+      <c r="E309" s="5">
+        <v>3419</v>
       </c>
       <c r="F309" s="4">
         <v>346</v>
@@ -13254,8 +13266,8 @@
       <c r="L309" s="4">
         <v>73</v>
       </c>
-      <c r="M309" s="5">
-        <v>6.3959999999999999</v>
+      <c r="M309" s="6">
+        <v>6396</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13271,8 +13283,8 @@
       <c r="D310" s="4">
         <v>176</v>
       </c>
-      <c r="E310" s="4">
-        <v>2.1</v>
+      <c r="E310" s="5">
+        <v>2100</v>
       </c>
       <c r="F310" s="4">
         <v>392</v>
@@ -13295,8 +13307,8 @@
       <c r="L310" s="4">
         <v>53</v>
       </c>
-      <c r="M310" s="5">
-        <v>4.7080000000000002</v>
+      <c r="M310" s="6">
+        <v>4708</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13310,8 +13322,8 @@
       <c r="D311" s="4">
         <v>790</v>
       </c>
-      <c r="E311" s="4">
-        <v>2.8490000000000002</v>
+      <c r="E311" s="5">
+        <v>2849</v>
       </c>
       <c r="F311" s="4">
         <v>122</v>
@@ -13334,8 +13346,8 @@
       <c r="L311" s="4">
         <v>58</v>
       </c>
-      <c r="M311" s="5">
-        <v>5.2779999999999996</v>
+      <c r="M311" s="6">
+        <v>5278</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13351,8 +13363,8 @@
       <c r="D312" s="4">
         <v>146</v>
       </c>
-      <c r="E312" s="4">
-        <v>1.84</v>
+      <c r="E312" s="5">
+        <v>1840</v>
       </c>
       <c r="F312" s="4">
         <v>124</v>
@@ -13375,8 +13387,8 @@
       <c r="L312" s="4">
         <v>31</v>
       </c>
-      <c r="M312" s="5">
-        <v>3.218</v>
+      <c r="M312" s="6">
+        <v>3218</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13390,8 +13402,8 @@
       <c r="D313" s="4">
         <v>676</v>
       </c>
-      <c r="E313" s="4">
-        <v>1.766</v>
+      <c r="E313" s="5">
+        <v>1766</v>
       </c>
       <c r="F313" s="4">
         <v>40</v>
@@ -13414,8 +13426,8 @@
       <c r="L313" s="4">
         <v>42</v>
       </c>
-      <c r="M313" s="5">
-        <v>3.641</v>
+      <c r="M313" s="6">
+        <v>3641</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13431,8 +13443,8 @@
       <c r="D314" s="4">
         <v>380</v>
       </c>
-      <c r="E314" s="4">
-        <v>1.9890000000000001</v>
+      <c r="E314" s="5">
+        <v>1989</v>
       </c>
       <c r="F314" s="4">
         <v>42</v>
@@ -13455,8 +13467,8 @@
       <c r="L314" s="4">
         <v>40</v>
       </c>
-      <c r="M314" s="5">
-        <v>3.335</v>
+      <c r="M314" s="6">
+        <v>3335</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13464,14 +13476,14 @@
       <c r="B315" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="4">
-        <v>1.577</v>
-      </c>
-      <c r="D315" s="4">
-        <v>1.204</v>
-      </c>
-      <c r="E315" s="4">
-        <v>1.8340000000000001</v>
+      <c r="C315" s="5">
+        <v>1577</v>
+      </c>
+      <c r="D315" s="5">
+        <v>1204</v>
+      </c>
+      <c r="E315" s="5">
+        <v>1834</v>
       </c>
       <c r="F315" s="4">
         <v>15</v>
@@ -13494,54 +13506,54 @@
       <c r="L315" s="4">
         <v>60</v>
       </c>
-      <c r="M315" s="5">
-        <v>4.9249999999999998</v>
+      <c r="M315" s="6">
+        <v>4925</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>5.76</v>
-      </c>
-      <c r="D316" s="5">
-        <v>10.324</v>
-      </c>
-      <c r="E316" s="5">
-        <v>45.697000000000003</v>
-      </c>
-      <c r="F316" s="5">
-        <v>22.093</v>
-      </c>
-      <c r="G316" s="5">
-        <v>39.195</v>
-      </c>
-      <c r="H316" s="5">
-        <v>66.319999999999993</v>
-      </c>
-      <c r="I316" s="5">
-        <v>33.072000000000003</v>
-      </c>
-      <c r="J316" s="5">
-        <v>2.2570000000000001</v>
-      </c>
-      <c r="K316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
+        <v>5760</v>
+      </c>
+      <c r="D316" s="6">
+        <v>10324</v>
+      </c>
+      <c r="E316" s="6">
+        <v>45697</v>
+      </c>
+      <c r="F316" s="6">
+        <v>22093</v>
+      </c>
+      <c r="G316" s="6">
+        <v>39195</v>
+      </c>
+      <c r="H316" s="6">
+        <v>66320</v>
+      </c>
+      <c r="I316" s="6">
+        <v>33072</v>
+      </c>
+      <c r="J316" s="6">
+        <v>2257</v>
+      </c>
+      <c r="K316" s="8">
         <v>172</v>
       </c>
-      <c r="L316" s="5">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="M316" s="5">
-        <v>226.67500000000001</v>
+      <c r="L316" s="6">
+        <v>1785</v>
+      </c>
+      <c r="M316" s="6">
+        <v>226675</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13595,14 +13607,14 @@
       <c r="F318" s="4">
         <v>2</v>
       </c>
-      <c r="G318" s="4">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="H318" s="4">
-        <v>8.7959999999999994</v>
-      </c>
-      <c r="I318" s="4">
-        <v>1.7669999999999999</v>
+      <c r="G318" s="5">
+        <v>2088</v>
+      </c>
+      <c r="H318" s="5">
+        <v>8796</v>
+      </c>
+      <c r="I318" s="5">
+        <v>1767</v>
       </c>
       <c r="J318" s="4">
         <v>27</v>
@@ -13613,8 +13625,8 @@
       <c r="L318" s="4">
         <v>120</v>
       </c>
-      <c r="M318" s="5">
-        <v>12.875999999999999</v>
+      <c r="M318" s="6">
+        <v>12876</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13634,14 +13646,14 @@
       <c r="F319" s="4">
         <v>3</v>
       </c>
-      <c r="G319" s="4">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H319" s="4">
-        <v>8.48</v>
-      </c>
-      <c r="I319" s="4">
-        <v>2.3679999999999999</v>
+      <c r="G319" s="5">
+        <v>1566</v>
+      </c>
+      <c r="H319" s="5">
+        <v>8480</v>
+      </c>
+      <c r="I319" s="5">
+        <v>2368</v>
       </c>
       <c r="J319" s="4">
         <v>30</v>
@@ -13652,8 +13664,8 @@
       <c r="L319" s="4">
         <v>83</v>
       </c>
-      <c r="M319" s="5">
-        <v>12.616</v>
+      <c r="M319" s="6">
+        <v>12616</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13675,14 +13687,14 @@
       <c r="F320" s="4">
         <v>45</v>
       </c>
-      <c r="G320" s="4">
-        <v>1.282</v>
-      </c>
-      <c r="H320" s="4">
-        <v>2.9689999999999999</v>
-      </c>
-      <c r="I320" s="4">
-        <v>4.4960000000000004</v>
+      <c r="G320" s="5">
+        <v>1282</v>
+      </c>
+      <c r="H320" s="5">
+        <v>2969</v>
+      </c>
+      <c r="I320" s="5">
+        <v>4496</v>
       </c>
       <c r="J320" s="4">
         <v>442</v>
@@ -13693,8 +13705,8 @@
       <c r="L320" s="4">
         <v>105</v>
       </c>
-      <c r="M320" s="5">
-        <v>9.4280000000000008</v>
+      <c r="M320" s="6">
+        <v>9428</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13714,14 +13726,14 @@
       <c r="F321" s="4">
         <v>65</v>
       </c>
-      <c r="G321" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H321" s="4">
-        <v>2.097</v>
-      </c>
-      <c r="I321" s="4">
-        <v>5.218</v>
+      <c r="G321" s="5">
+        <v>1078</v>
+      </c>
+      <c r="H321" s="5">
+        <v>2097</v>
+      </c>
+      <c r="I321" s="5">
+        <v>5218</v>
       </c>
       <c r="J321" s="4">
         <v>598</v>
@@ -13732,8 +13744,8 @@
       <c r="L321" s="4">
         <v>136</v>
       </c>
-      <c r="M321" s="5">
-        <v>9.4329999999999998</v>
+      <c r="M321" s="6">
+        <v>9433</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13758,11 +13770,11 @@
       <c r="G322" s="4">
         <v>806</v>
       </c>
-      <c r="H322" s="4">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="I322" s="4">
-        <v>4.0430000000000001</v>
+      <c r="H322" s="5">
+        <v>2564</v>
+      </c>
+      <c r="I322" s="5">
+        <v>4043</v>
       </c>
       <c r="J322" s="4">
         <v>618</v>
@@ -13773,8 +13785,8 @@
       <c r="L322" s="4">
         <v>152</v>
       </c>
-      <c r="M322" s="5">
-        <v>8.9250000000000007</v>
+      <c r="M322" s="6">
+        <v>8925</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13797,11 +13809,11 @@
       <c r="G323" s="4">
         <v>609</v>
       </c>
-      <c r="H323" s="4">
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="I323" s="4">
-        <v>4.75</v>
+      <c r="H323" s="5">
+        <v>2185</v>
+      </c>
+      <c r="I323" s="5">
+        <v>4750</v>
       </c>
       <c r="J323" s="4">
         <v>773</v>
@@ -13812,8 +13824,8 @@
       <c r="L323" s="4">
         <v>197</v>
       </c>
-      <c r="M323" s="5">
-        <v>9.7569999999999997</v>
+      <c r="M323" s="6">
+        <v>9757</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13838,11 +13850,11 @@
       <c r="G324" s="4">
         <v>624</v>
       </c>
-      <c r="H324" s="4">
-        <v>2.984</v>
-      </c>
-      <c r="I324" s="4">
-        <v>3.9580000000000002</v>
+      <c r="H324" s="5">
+        <v>2984</v>
+      </c>
+      <c r="I324" s="5">
+        <v>3958</v>
       </c>
       <c r="J324" s="4">
         <v>694</v>
@@ -13853,8 +13865,8 @@
       <c r="L324" s="4">
         <v>164</v>
       </c>
-      <c r="M324" s="5">
-        <v>9.5549999999999997</v>
+      <c r="M324" s="6">
+        <v>9555</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13877,11 +13889,11 @@
       <c r="G325" s="4">
         <v>683</v>
       </c>
-      <c r="H325" s="4">
-        <v>2.9470000000000001</v>
-      </c>
-      <c r="I325" s="4">
-        <v>4.4610000000000003</v>
+      <c r="H325" s="5">
+        <v>2947</v>
+      </c>
+      <c r="I325" s="5">
+        <v>4461</v>
       </c>
       <c r="J325" s="4">
         <v>718</v>
@@ -13892,8 +13904,8 @@
       <c r="L325" s="4">
         <v>185</v>
       </c>
-      <c r="M325" s="5">
-        <v>10.922000000000001</v>
+      <c r="M325" s="6">
+        <v>10922</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13915,14 +13927,14 @@
       <c r="F326" s="4">
         <v>649</v>
       </c>
-      <c r="G326" s="4">
-        <v>1.036</v>
-      </c>
-      <c r="H326" s="4">
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="I326" s="4">
-        <v>3.7250000000000001</v>
+      <c r="G326" s="5">
+        <v>1036</v>
+      </c>
+      <c r="H326" s="5">
+        <v>3188</v>
+      </c>
+      <c r="I326" s="5">
+        <v>3725</v>
       </c>
       <c r="J326" s="4">
         <v>831</v>
@@ -13933,8 +13945,8 @@
       <c r="L326" s="4">
         <v>196</v>
       </c>
-      <c r="M326" s="5">
-        <v>10.483000000000001</v>
+      <c r="M326" s="6">
+        <v>10483</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13948,20 +13960,20 @@
       <c r="D327" s="4">
         <v>189</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.413</v>
+      <c r="E327" s="5">
+        <v>1413</v>
       </c>
       <c r="F327" s="4">
         <v>603</v>
       </c>
-      <c r="G327" s="4">
-        <v>1.111</v>
-      </c>
-      <c r="H327" s="4">
-        <v>3.5979999999999999</v>
-      </c>
-      <c r="I327" s="4">
-        <v>4.1749999999999998</v>
+      <c r="G327" s="5">
+        <v>1111</v>
+      </c>
+      <c r="H327" s="5">
+        <v>3598</v>
+      </c>
+      <c r="I327" s="5">
+        <v>4175</v>
       </c>
       <c r="J327" s="4">
         <v>862</v>
@@ -13972,8 +13984,8 @@
       <c r="L327" s="4">
         <v>165</v>
       </c>
-      <c r="M327" s="5">
-        <v>12.305</v>
+      <c r="M327" s="6">
+        <v>12305</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -13995,14 +14007,14 @@
       <c r="F328" s="4">
         <v>762</v>
       </c>
-      <c r="G328" s="4">
-        <v>1.022</v>
-      </c>
-      <c r="H328" s="4">
-        <v>2.8069999999999999</v>
-      </c>
-      <c r="I328" s="4">
-        <v>3.2829999999999999</v>
+      <c r="G328" s="5">
+        <v>1022</v>
+      </c>
+      <c r="H328" s="5">
+        <v>2807</v>
+      </c>
+      <c r="I328" s="5">
+        <v>3283</v>
       </c>
       <c r="J328" s="4">
         <v>595</v>
@@ -14013,8 +14025,8 @@
       <c r="L328" s="4">
         <v>176</v>
       </c>
-      <c r="M328" s="5">
-        <v>9.6760000000000002</v>
+      <c r="M328" s="6">
+        <v>9676</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14028,20 +14040,20 @@
       <c r="D329" s="4">
         <v>166</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.615</v>
+      <c r="E329" s="5">
+        <v>1615</v>
       </c>
       <c r="F329" s="4">
         <v>706</v>
       </c>
-      <c r="G329" s="4">
-        <v>1.145</v>
-      </c>
-      <c r="H329" s="4">
-        <v>3.173</v>
-      </c>
-      <c r="I329" s="4">
-        <v>3.2450000000000001</v>
+      <c r="G329" s="5">
+        <v>1145</v>
+      </c>
+      <c r="H329" s="5">
+        <v>3173</v>
+      </c>
+      <c r="I329" s="5">
+        <v>3245</v>
       </c>
       <c r="J329" s="4">
         <v>486</v>
@@ -14052,8 +14064,8 @@
       <c r="L329" s="4">
         <v>160</v>
       </c>
-      <c r="M329" s="5">
-        <v>10.898999999999999</v>
+      <c r="M329" s="6">
+        <v>10899</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14075,14 +14087,14 @@
       <c r="F330" s="4">
         <v>875</v>
       </c>
-      <c r="G330" s="4">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="H330" s="4">
-        <v>2.4009999999999998</v>
-      </c>
-      <c r="I330" s="4">
-        <v>2.5590000000000002</v>
+      <c r="G330" s="5">
+        <v>1146</v>
+      </c>
+      <c r="H330" s="5">
+        <v>2401</v>
+      </c>
+      <c r="I330" s="5">
+        <v>2559</v>
       </c>
       <c r="J330" s="4">
         <v>448</v>
@@ -14093,8 +14105,8 @@
       <c r="L330" s="4">
         <v>179</v>
       </c>
-      <c r="M330" s="5">
-        <v>8.67</v>
+      <c r="M330" s="6">
+        <v>8670</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14108,20 +14120,20 @@
       <c r="D331" s="4">
         <v>251</v>
       </c>
-      <c r="E331" s="4">
-        <v>1.6950000000000001</v>
+      <c r="E331" s="5">
+        <v>1695</v>
       </c>
       <c r="F331" s="4">
         <v>693</v>
       </c>
-      <c r="G331" s="4">
-        <v>1.163</v>
-      </c>
-      <c r="H331" s="4">
-        <v>2.629</v>
-      </c>
-      <c r="I331" s="4">
-        <v>2.1619999999999999</v>
+      <c r="G331" s="5">
+        <v>1163</v>
+      </c>
+      <c r="H331" s="5">
+        <v>2629</v>
+      </c>
+      <c r="I331" s="5">
+        <v>2162</v>
       </c>
       <c r="J331" s="4">
         <v>275</v>
@@ -14132,8 +14144,8 @@
       <c r="L331" s="4">
         <v>133</v>
       </c>
-      <c r="M331" s="5">
-        <v>9.1920000000000002</v>
+      <c r="M331" s="6">
+        <v>9192</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14155,14 +14167,14 @@
       <c r="F332" s="4">
         <v>725</v>
       </c>
-      <c r="G332" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="H332" s="4">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="I332" s="4">
-        <v>1.913</v>
+      <c r="G332" s="5">
+        <v>1040</v>
+      </c>
+      <c r="H332" s="5">
+        <v>2261</v>
+      </c>
+      <c r="I332" s="5">
+        <v>1913</v>
       </c>
       <c r="J332" s="4">
         <v>264</v>
@@ -14173,8 +14185,8 @@
       <c r="L332" s="4">
         <v>155</v>
       </c>
-      <c r="M332" s="5">
-        <v>7.4969999999999999</v>
+      <c r="M332" s="6">
+        <v>7497</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14188,8 +14200,8 @@
       <c r="D333" s="4">
         <v>297</v>
       </c>
-      <c r="E333" s="4">
-        <v>2.1</v>
+      <c r="E333" s="5">
+        <v>2100</v>
       </c>
       <c r="F333" s="4">
         <v>528</v>
@@ -14197,11 +14209,11 @@
       <c r="G333" s="4">
         <v>904</v>
       </c>
-      <c r="H333" s="4">
-        <v>2.3069999999999999</v>
-      </c>
-      <c r="I333" s="4">
-        <v>1.571</v>
+      <c r="H333" s="5">
+        <v>2307</v>
+      </c>
+      <c r="I333" s="5">
+        <v>1571</v>
       </c>
       <c r="J333" s="4">
         <v>132</v>
@@ -14212,8 +14224,8 @@
       <c r="L333" s="4">
         <v>136</v>
       </c>
-      <c r="M333" s="5">
-        <v>8.1780000000000008</v>
+      <c r="M333" s="6">
+        <v>8178</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14229,8 +14241,8 @@
       <c r="D334" s="4">
         <v>53</v>
       </c>
-      <c r="E334" s="4">
-        <v>1.2090000000000001</v>
+      <c r="E334" s="5">
+        <v>1209</v>
       </c>
       <c r="F334" s="4">
         <v>443</v>
@@ -14238,11 +14250,11 @@
       <c r="G334" s="4">
         <v>692</v>
       </c>
-      <c r="H334" s="4">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="I334" s="4">
-        <v>1.5289999999999999</v>
+      <c r="H334" s="5">
+        <v>2099</v>
+      </c>
+      <c r="I334" s="5">
+        <v>1529</v>
       </c>
       <c r="J334" s="4">
         <v>127</v>
@@ -14253,8 +14265,8 @@
       <c r="L334" s="4">
         <v>145</v>
       </c>
-      <c r="M334" s="5">
-        <v>6.3650000000000002</v>
+      <c r="M334" s="6">
+        <v>6365</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14268,8 +14280,8 @@
       <c r="D335" s="4">
         <v>396</v>
       </c>
-      <c r="E335" s="4">
-        <v>2.173</v>
+      <c r="E335" s="5">
+        <v>2173</v>
       </c>
       <c r="F335" s="4">
         <v>302</v>
@@ -14277,11 +14289,11 @@
       <c r="G335" s="4">
         <v>623</v>
       </c>
-      <c r="H335" s="4">
-        <v>1.901</v>
-      </c>
-      <c r="I335" s="4">
-        <v>1.004</v>
+      <c r="H335" s="5">
+        <v>1901</v>
+      </c>
+      <c r="I335" s="5">
+        <v>1004</v>
       </c>
       <c r="J335" s="4">
         <v>48</v>
@@ -14292,8 +14304,8 @@
       <c r="L335" s="4">
         <v>129</v>
       </c>
-      <c r="M335" s="5">
-        <v>6.7949999999999999</v>
+      <c r="M335" s="6">
+        <v>6795</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14309,8 +14321,8 @@
       <c r="D336" s="4">
         <v>83</v>
       </c>
-      <c r="E336" s="4">
-        <v>1.248</v>
+      <c r="E336" s="5">
+        <v>1248</v>
       </c>
       <c r="F336" s="4">
         <v>239</v>
@@ -14318,11 +14330,11 @@
       <c r="G336" s="4">
         <v>567</v>
       </c>
-      <c r="H336" s="4">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="I336" s="4">
-        <v>1.456</v>
+      <c r="H336" s="5">
+        <v>1267</v>
+      </c>
+      <c r="I336" s="5">
+        <v>1456</v>
       </c>
       <c r="J336" s="4">
         <v>64</v>
@@ -14333,8 +14345,8 @@
       <c r="L336" s="4">
         <v>119</v>
       </c>
-      <c r="M336" s="5">
-        <v>5.09</v>
+      <c r="M336" s="6">
+        <v>5090</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14348,8 +14360,8 @@
       <c r="D337" s="4">
         <v>410</v>
       </c>
-      <c r="E337" s="4">
-        <v>2.016</v>
+      <c r="E337" s="5">
+        <v>2016</v>
       </c>
       <c r="F337" s="4">
         <v>121</v>
@@ -14357,8 +14369,8 @@
       <c r="G337" s="4">
         <v>458</v>
       </c>
-      <c r="H337" s="4">
-        <v>1.105</v>
+      <c r="H337" s="5">
+        <v>1105</v>
       </c>
       <c r="I337" s="4">
         <v>906</v>
@@ -14372,8 +14384,8 @@
       <c r="L337" s="4">
         <v>104</v>
       </c>
-      <c r="M337" s="5">
-        <v>5.4569999999999999</v>
+      <c r="M337" s="6">
+        <v>5457</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14389,8 +14401,8 @@
       <c r="D338" s="4">
         <v>92</v>
       </c>
-      <c r="E338" s="4">
-        <v>1.022</v>
+      <c r="E338" s="5">
+        <v>1022</v>
       </c>
       <c r="F338" s="4">
         <v>74</v>
@@ -14413,8 +14425,8 @@
       <c r="L338" s="4">
         <v>85</v>
       </c>
-      <c r="M338" s="5">
-        <v>3.3570000000000002</v>
+      <c r="M338" s="6">
+        <v>3357</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14428,8 +14440,8 @@
       <c r="D339" s="4">
         <v>437</v>
       </c>
-      <c r="E339" s="4">
-        <v>1.492</v>
+      <c r="E339" s="5">
+        <v>1492</v>
       </c>
       <c r="F339" s="4">
         <v>53</v>
@@ -14452,8 +14464,8 @@
       <c r="L339" s="4">
         <v>81</v>
       </c>
-      <c r="M339" s="5">
-        <v>3.8780000000000001</v>
+      <c r="M339" s="6">
+        <v>3878</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14469,8 +14481,8 @@
       <c r="D340" s="4">
         <v>212</v>
       </c>
-      <c r="E340" s="4">
-        <v>1.2989999999999999</v>
+      <c r="E340" s="5">
+        <v>1299</v>
       </c>
       <c r="F340" s="4">
         <v>36</v>
@@ -14493,8 +14505,8 @@
       <c r="L340" s="4">
         <v>83</v>
       </c>
-      <c r="M340" s="5">
-        <v>3.6469999999999998</v>
+      <c r="M340" s="6">
+        <v>3647</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14508,8 +14520,8 @@
       <c r="D341" s="4">
         <v>971</v>
       </c>
-      <c r="E341" s="4">
-        <v>1.87</v>
+      <c r="E341" s="5">
+        <v>1870</v>
       </c>
       <c r="F341" s="4">
         <v>18</v>
@@ -14532,47 +14544,57 @@
       <c r="L341" s="4">
         <v>113</v>
       </c>
-      <c r="M341" s="5">
-        <v>5.1589999999999998</v>
+      <c r="M341" s="6">
+        <v>5159</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>2.4809999999999999</v>
-      </c>
-      <c r="D342" s="5">
-        <v>4.4610000000000003</v>
-      </c>
-      <c r="E342" s="5">
-        <v>24.097999999999999</v>
-      </c>
-      <c r="F342" s="5">
-        <v>9.7759999999999998</v>
-      </c>
-      <c r="G342" s="5">
-        <v>20.986999999999998</v>
-      </c>
-      <c r="H342" s="5">
-        <v>64.266000000000005</v>
-      </c>
-      <c r="I342" s="5">
-        <v>61.274000000000001</v>
-      </c>
-      <c r="J342" s="5">
-        <v>8.2070000000000007</v>
-      </c>
-      <c r="K342" s="5">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="L342" s="5">
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="M342" s="5">
-        <v>200.16</v>
+      <c r="B342" s="7"/>
+      <c r="C342" s="6">
+        <v>2481</v>
+      </c>
+      <c r="D342" s="6">
+        <v>4461</v>
+      </c>
+      <c r="E342" s="6">
+        <v>24098</v>
+      </c>
+      <c r="F342" s="6">
+        <v>9776</v>
+      </c>
+      <c r="G342" s="6">
+        <v>20987</v>
+      </c>
+      <c r="H342" s="6">
+        <v>64266</v>
+      </c>
+      <c r="I342" s="6">
+        <v>61274</v>
+      </c>
+      <c r="J342" s="6">
+        <v>8207</v>
+      </c>
+      <c r="K342" s="6">
+        <v>1309</v>
+      </c>
+      <c r="L342" s="6">
+        <v>3301</v>
+      </c>
+      <c r="M342" s="6">
+        <v>200160</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
